--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="37935" windowHeight="19695" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="37935" windowHeight="19695" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" r:id="rId2"/>
-    <sheet name="settings" sheetId="5" r:id="rId3"/>
-    <sheet name="model" sheetId="6" r:id="rId4"/>
+    <sheet name="queries" sheetId="7" r:id="rId2"/>
+    <sheet name="choices" sheetId="2" r:id="rId3"/>
+    <sheet name="settings" sheetId="5" r:id="rId4"/>
+    <sheet name="model" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
   <si>
     <t>comments</t>
   </si>
@@ -143,9 +144,6 @@
     <t>village</t>
   </si>
   <si>
-    <t>villages</t>
-  </si>
-  <si>
     <t>service</t>
   </si>
   <si>
@@ -164,30 +162,6 @@
     <t>Manufacturing</t>
   </si>
   <si>
-    <t>village1</t>
-  </si>
-  <si>
-    <t>village2</t>
-  </si>
-  <si>
-    <t>village3</t>
-  </si>
-  <si>
-    <t>village4</t>
-  </si>
-  <si>
-    <t>Village 1</t>
-  </si>
-  <si>
-    <t>Village 2</t>
-  </si>
-  <si>
-    <t>Village 3</t>
-  </si>
-  <si>
-    <t>Village 4</t>
-  </si>
-  <si>
     <t>sector_type</t>
   </si>
   <si>
@@ -218,60 +192,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>subvillages</t>
-  </si>
-  <si>
-    <t>subvillage1</t>
-  </si>
-  <si>
-    <t>Subvillage 1</t>
-  </si>
-  <si>
-    <t>subvillage2</t>
-  </si>
-  <si>
-    <t>Subvillage 2</t>
-  </si>
-  <si>
-    <t>subvillage3</t>
-  </si>
-  <si>
-    <t>Subvillage 3</t>
-  </si>
-  <si>
-    <t>subvillage4</t>
-  </si>
-  <si>
-    <t>Subvillage 4</t>
-  </si>
-  <si>
-    <t>village_veos</t>
-  </si>
-  <si>
-    <t>veo1</t>
-  </si>
-  <si>
-    <t>VEO1</t>
-  </si>
-  <si>
-    <t>veo2</t>
-  </si>
-  <si>
-    <t>VEO2</t>
-  </si>
-  <si>
-    <t>veo3</t>
-  </si>
-  <si>
-    <t>VEO3</t>
-  </si>
-  <si>
-    <t>veo4</t>
-  </si>
-  <si>
-    <t>VEO4</t>
-  </si>
-  <si>
     <t>firm_name</t>
   </si>
   <si>
@@ -365,10 +285,49 @@
     <t>true_false_01</t>
   </si>
   <si>
-    <t>veo5</t>
-  </si>
-  <si>
-    <t>VEO5</t>
+    <t>query_name</t>
+  </si>
+  <si>
+    <t>query_type</t>
+  </si>
+  <si>
+    <t>villages_csv</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>_.chain(context).pluck('village_name').uniq().map(function(village){
+return {data_value: village, display: {title: {text: village} } };
+}).value()</t>
+  </si>
+  <si>
+    <t>subvillages_csv</t>
+  </si>
+  <si>
+    <t>_.map(context, function(place){
+return { village: place.village_name, data_value: place.subvillage_name, display: {title: {text: place.subvillage_name} } };
+})</t>
+  </si>
+  <si>
+    <t>veos_csv</t>
+  </si>
+  <si>
+    <t>_.map(context, function(place){
+return { village: place.village_name, data_value: place.veo, display: {title: {text: place.veo} } };
+})</t>
+  </si>
+  <si>
+    <t>"village.csv"</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>callback</t>
+  </si>
+  <si>
+    <t>choice_item.village === data('village')</t>
   </si>
 </sst>
 </file>
@@ -401,14 +360,14 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -448,7 +407,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -463,6 +422,13 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -877,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -941,10 +907,10 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -952,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -969,7 +935,7 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -980,7 +946,7 @@
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -991,7 +957,7 @@
         <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1002,7 +968,7 @@
         <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1010,35 +976,35 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1049,7 +1015,7 @@
         <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1057,10 +1023,10 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1071,35 +1037,38 @@
         <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
-        <v>37</v>
+      <c r="E14" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="F14" t="s">
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
-        <v>62</v>
+      <c r="E15" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>82</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1115,10 +1084,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="49.28515625" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="10" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="8" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1142,222 +1190,79 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1371,7 +1276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1435,7 +1340,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1449,7 +1354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -1476,7 +1381,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1484,7 +1389,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1524,23 +1429,23 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1572,7 +1477,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1580,7 +1485,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1588,15 +1493,15 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1604,7 +1509,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1612,7 +1517,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1620,15 +1525,15 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1636,7 +1541,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarice\eKichabi\app-designer\app\config\tables\business\forms\enrollment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="37935" windowHeight="19695" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <sheet name="settings" sheetId="5" r:id="rId4"/>
     <sheet name="model" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="95">
   <si>
     <t>comments</t>
   </si>
@@ -165,13 +160,7 @@
     <t>sector_type</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>False</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>True</t>
@@ -333,7 +322,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -420,7 +409,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -429,6 +417,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -843,25 +832,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="44.28515625" customWidth="1"/>
-    <col min="8" max="8" width="41.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="44.33203125" customWidth="1"/>
+    <col min="8" max="8" width="41.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="1023" width="11.28515625" customWidth="1"/>
+    <col min="11" max="1023" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,32 +891,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="D4" t="s">
         <v>27</v>
       </c>
@@ -935,10 +924,10 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="D5" t="s">
         <v>29</v>
       </c>
@@ -946,10 +935,10 @@
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="D6" t="s">
         <v>31</v>
       </c>
@@ -957,10 +946,10 @@
         <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="D7" t="s">
         <v>23</v>
       </c>
@@ -968,46 +957,46 @@
         <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>56</v>
       </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="10" spans="1:13">
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="D11" t="s">
         <v>23</v>
       </c>
@@ -1015,21 +1004,21 @@
         <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="D12" t="s">
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="D13" t="s">
         <v>23</v>
       </c>
@@ -1037,38 +1026,38 @@
         <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>86</v>
+      <c r="E14" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="F14" t="s">
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="36">
       <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>89</v>
+      <c r="E15" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>96</v>
+        <v>80</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1090,74 +1079,79 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="49.28515625" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="10" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="49.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="6" max="10" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="71.25" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="C2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:4" s="7" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="B3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="4" spans="1:4" s="7" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="B4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1165,19 +1159,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD28"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="1024" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" customWidth="1"/>
+    <col min="4" max="1024" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16.25" customHeight="1">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1188,9 +1182,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -1199,9 +1193,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="16" customHeight="1">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -1210,9 +1204,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17" customHeight="1">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
@@ -1221,48 +1215,48 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="B9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1284,15 +1278,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="1022" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="1022" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -1303,7 +1297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="16.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1311,7 +1305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="16.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1319,7 +1313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="16.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1327,7 +1321,7 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="16.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1335,12 +1329,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1362,13 +1356,13 @@
       <selection sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1376,15 +1370,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1392,7 +1386,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1400,7 +1394,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1408,7 +1402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1416,7 +1410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1424,31 +1418,31 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
       <c r="B9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1456,7 +1450,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1464,7 +1458,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1472,79 +1466,84 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="7280" yWindow="2580" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
   <si>
     <t>comments</t>
   </si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>Choose the subvillage.</t>
-  </si>
-  <si>
-    <t>true_false_01</t>
   </si>
   <si>
     <t>query_name</t>
@@ -317,6 +314,12 @@
   </si>
   <si>
     <t>choice_item.village === data('village')</t>
+  </si>
+  <si>
+    <t>true_false_unsure</t>
+  </si>
+  <si>
+    <t>Unsure</t>
   </si>
 </sst>
 </file>
@@ -388,15 +391,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -418,13 +429,22 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="14">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1034,7 +1054,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
         <v>36</v>
@@ -1048,7 +1068,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
         <v>59</v>
@@ -1057,7 +1077,7 @@
         <v>80</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1091,58 +1111,58 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="C1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="71.25" customHeight="1">
       <c r="A2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="7" customFormat="1" ht="76.5" customHeight="1">
       <c r="A3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="7" customFormat="1" ht="76.5" customHeight="1">
       <c r="A4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1157,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1217,7 +1237,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
@@ -1228,7 +1248,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B7" s="10">
         <v>1</v>
@@ -1237,15 +1257,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="10">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1253,9 +1273,20 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>50</v>
       </c>
     </row>

--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="2580" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6780" yWindow="2600" windowWidth="30500" windowHeight="16440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="choices" sheetId="2" r:id="rId3"/>
     <sheet name="settings" sheetId="5" r:id="rId4"/>
     <sheet name="model" sheetId="6" r:id="rId5"/>
+    <sheet name="prompt_types" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="128">
   <si>
     <t>comments</t>
   </si>
@@ -109,54 +110,12 @@
     <t>Enrollment</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>enrollment_date</t>
-  </si>
-  <si>
-    <t>geopoint</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>phone_number</t>
   </si>
   <si>
-    <t>photo</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
     <t>village</t>
   </si>
   <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>merchandise</t>
-  </si>
-  <si>
-    <t>manufacturing</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Merchandise</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
     <t>sector_type</t>
   </si>
   <si>
@@ -169,15 +128,9 @@
     <t>male_female</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -217,24 +170,12 @@
     <t>sector_type_list</t>
   </si>
   <si>
-    <t>verification_date</t>
-  </si>
-  <si>
-    <t>verification_agent</t>
-  </si>
-  <si>
     <t>select_one_integer</t>
   </si>
   <si>
     <t>has_been_verified_by_agent</t>
   </si>
   <si>
-    <t>authorization_date</t>
-  </si>
-  <si>
-    <t>authorization_otc</t>
-  </si>
-  <si>
     <t>authorization_veo</t>
   </si>
   <si>
@@ -247,28 +188,10 @@
     <t>Choose the sector of the business.</t>
   </si>
   <si>
-    <t>Enter the date of the enrollment.</t>
-  </si>
-  <si>
-    <t>Record the location of the business.</t>
-  </si>
-  <si>
-    <t>Take a photo of the business.</t>
-  </si>
-  <si>
-    <t>Enter the business owner's name.</t>
-  </si>
-  <si>
     <t>Enter the phone number for the business.</t>
   </si>
   <si>
-    <t>Enter the address.</t>
-  </si>
-  <si>
     <t>Choose the village.</t>
-  </si>
-  <si>
-    <t>Choose the subvillage.</t>
   </si>
   <si>
     <t>query_name</t>
@@ -313,20 +236,194 @@
     <t>callback</t>
   </si>
   <si>
-    <t>choice_item.village === data('village')</t>
-  </si>
-  <si>
     <t>true_false_unsure</t>
   </si>
   <si>
     <t>Unsure</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>Trading and Wholesale</t>
+  </si>
+  <si>
+    <t>merchant</t>
+  </si>
+  <si>
+    <t>Merchant/Retail</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>hiring</t>
+  </si>
+  <si>
+    <t>Hiring and Labor</t>
+  </si>
+  <si>
+    <t>agri</t>
+  </si>
+  <si>
+    <t>Agri Processing</t>
+  </si>
+  <si>
+    <t>repairs</t>
+  </si>
+  <si>
+    <t>Repairs</t>
+  </si>
+  <si>
+    <t>Non-agri</t>
+  </si>
+  <si>
+    <t>Non-Agri Services</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>network_list</t>
+  </si>
+  <si>
+    <t>airtel</t>
+  </si>
+  <si>
+    <t>Airtel</t>
+  </si>
+  <si>
+    <t>vodacom</t>
+  </si>
+  <si>
+    <t>Vodacom</t>
+  </si>
+  <si>
+    <t>tigo</t>
+  </si>
+  <si>
+    <t>Tigo</t>
+  </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
+    <t>business_owner_age</t>
+  </si>
+  <si>
+    <t>phone_number_network</t>
+  </si>
+  <si>
+    <t>secondary_phone_number_network</t>
+  </si>
+  <si>
+    <t>enroller_id</t>
+  </si>
+  <si>
+    <t>verifier_id</t>
+  </si>
+  <si>
+    <t>What is the age of the business owner?</t>
+  </si>
+  <si>
+    <t>Enter the network for the phone number.</t>
+  </si>
+  <si>
+    <t>Enter the network for the secondary phone number.</t>
+  </si>
+  <si>
+    <t>district_csv</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>Choose the district.</t>
+  </si>
+  <si>
+    <t>select_one_group_by</t>
+  </si>
+  <si>
+    <t>prompt_type_name</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>district_group_by</t>
+  </si>
+  <si>
+    <t>villages_group_by</t>
+  </si>
+  <si>
+    <t>linked_table_id</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selectionArgs</t>
+  </si>
+  <si>
+    <t>fieldName</t>
+  </si>
+  <si>
+    <t>newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>linked_table</t>
+  </si>
+  <si>
+    <t>geo_unit</t>
+  </si>
+  <si>
+    <t>DISTINCT(district)</t>
+  </si>
+  <si>
+    <t>1=1</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>DISTINCT(village)</t>
+  </si>
+  <si>
+    <t>district=?</t>
+  </si>
+  <si>
+    <t>linked_form_id</t>
+  </si>
+  <si>
+    <t>columnValue</t>
+  </si>
+  <si>
+    <t>[data('district')]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -367,6 +464,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -391,7 +504,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -406,8 +519,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -420,18 +549,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="30">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -439,12 +580,28 @@
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -850,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -913,60 +1070,66 @@
     </row>
     <row r="2" spans="1:13">
       <c r="D2" t="s">
-        <v>23</v>
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="D3" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="D4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="D6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -974,10 +1137,10 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -985,46 +1148,49 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="D9" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="D10" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="D11" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1032,52 +1198,24 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="D13" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="36">
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1093,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1105,68 +1243,176 @@
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
     <col min="4" max="4" width="49.33203125" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
-    <col min="6" max="10" width="50.6640625" customWidth="1"/>
+    <col min="5" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="33" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" ht="71.25" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="7" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>89</v>
+    <row r="1" spans="1:12" ht="15">
+      <c r="A1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="71.25" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="71.25" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1177,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1204,91 +1450,192 @@
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" customHeight="1">
       <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1">
       <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="10">
+        <v>46</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
         <v>-1</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1365,7 +1712,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1381,16 +1728,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1403,10 +1752,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1414,12 +1763,12 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -1427,58 +1776,58 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1486,7 +1835,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1494,23 +1843,23 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1518,59 +1867,87 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13">
+      <c r="A2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="128">
   <si>
     <t>comments</t>
   </si>
@@ -222,11 +222,6 @@
     <t>veos_csv</t>
   </si>
   <si>
-    <t>_.map(context, function(place){
-return { village: place.village_name, data_value: place.veo, display: {title: {text: place.veo} } };
-})</t>
-  </si>
-  <si>
     <t>"village.csv"</t>
   </si>
   <si>
@@ -417,6 +412,9 @@
   </si>
   <si>
     <t>[data('district')]</t>
+  </si>
+  <si>
+    <t>authorizer_id</t>
   </si>
 </sst>
 </file>
@@ -504,9 +502,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="30">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -572,7 +582,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="30">
+  <cellStyles count="42">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -588,6 +598,12 @@
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -602,6 +618,12 @@
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1070,24 +1092,24 @@
     </row>
     <row r="2" spans="1:13">
       <c r="D2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
         <v>104</v>
-      </c>
-      <c r="G2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="D3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1137,10 +1159,10 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1184,13 +1206,13 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1209,13 +1231,13 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +1256,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1260,34 +1282,34 @@
         <v>56</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="E1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="71.25" customHeight="1">
@@ -1298,7 +1320,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>59</v>
@@ -1312,7 +1334,7 @@
         <v>58</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>61</v>
@@ -1326,21 +1348,21 @@
         <v>58</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="6" customFormat="1" ht="71.25" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>59</v>
@@ -1348,63 +1370,63 @@
     </row>
     <row r="6" spans="1:12" ht="15">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
         <v>117</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" t="s">
         <v>118</v>
       </c>
-      <c r="F6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>122</v>
-      </c>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
         <v>117</v>
       </c>
-      <c r="E7" t="s">
-        <v>118</v>
-      </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s">
         <v>28</v>
@@ -1453,10 +1475,10 @@
         <v>46</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" customHeight="1">
@@ -1464,10 +1486,10 @@
         <v>46</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1">
@@ -1475,10 +1497,10 @@
         <v>46</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1486,10 +1508,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1497,10 +1519,10 @@
         <v>46</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1508,10 +1530,10 @@
         <v>46</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1519,10 +1541,10 @@
         <v>46</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1530,10 +1552,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1541,7 +1563,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="9">
         <v>0</v>
@@ -1552,7 +1574,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="9">
         <v>1</v>
@@ -1563,13 +1585,13 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14">
         <v>-1</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1577,7 +1599,7 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
@@ -1588,7 +1610,7 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
@@ -1601,35 +1623,35 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1728,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1755,7 +1777,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1763,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1811,7 +1833,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1843,7 +1865,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1859,7 +1881,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1867,7 +1889,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1875,7 +1897,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1900,6 +1922,14 @@
       </c>
       <c r="B20" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1929,7 +1959,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>3</v>
@@ -1937,10 +1967,10 @@
     </row>
     <row r="2" spans="1:2" ht="13">
       <c r="A2" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eKichabi\app-designer\app\config\tables\business\forms\enrollment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="2600" windowWidth="30500" windowHeight="16440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6780" yWindow="2597" windowWidth="30497" windowHeight="16440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="189">
   <si>
     <t>comments</t>
   </si>
@@ -149,9 +154,6 @@
     <t>business_age</t>
   </si>
   <si>
-    <t>How old is this business?</t>
-  </si>
-  <si>
     <t>firm_size</t>
   </si>
   <si>
@@ -200,228 +202,412 @@
     <t>query_type</t>
   </si>
   <si>
-    <t>villages_csv</t>
-  </si>
-  <si>
     <t>csv</t>
   </si>
   <si>
-    <t>_.chain(context).pluck('village_name').uniq().map(function(village){
-return {data_value: village, display: {title: {text: village} } };
-}).value()</t>
-  </si>
-  <si>
-    <t>subvillages_csv</t>
-  </si>
-  <si>
-    <t>_.map(context, function(place){
-return { village: place.village_name, data_value: place.subvillage_name, display: {title: {text: place.subvillage_name} } };
+    <t>uri</t>
+  </si>
+  <si>
+    <t>callback</t>
+  </si>
+  <si>
+    <t>true_false_unsure</t>
+  </si>
+  <si>
+    <t>Unsure</t>
+  </si>
+  <si>
+    <t>Merchant/Retail</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Hiring and Labor</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>network_list</t>
+  </si>
+  <si>
+    <t>airtel</t>
+  </si>
+  <si>
+    <t>Airtel</t>
+  </si>
+  <si>
+    <t>vodacom</t>
+  </si>
+  <si>
+    <t>Vodacom</t>
+  </si>
+  <si>
+    <t>tigo</t>
+  </si>
+  <si>
+    <t>Tigo</t>
+  </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
+    <t>business_owner_age</t>
+  </si>
+  <si>
+    <t>phone_number_network</t>
+  </si>
+  <si>
+    <t>secondary_phone_number_network</t>
+  </si>
+  <si>
+    <t>enroller_id</t>
+  </si>
+  <si>
+    <t>verifier_id</t>
+  </si>
+  <si>
+    <t>What is the age of the business owner?</t>
+  </si>
+  <si>
+    <t>Enter the network for the phone number.</t>
+  </si>
+  <si>
+    <t>Enter the network for the secondary phone number.</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>Choose the district.</t>
+  </si>
+  <si>
+    <t>select_one_group_by</t>
+  </si>
+  <si>
+    <t>prompt_type_name</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>district_group_by</t>
+  </si>
+  <si>
+    <t>villages_group_by</t>
+  </si>
+  <si>
+    <t>linked_table_id</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selectionArgs</t>
+  </si>
+  <si>
+    <t>fieldName</t>
+  </si>
+  <si>
+    <t>newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>linked_table</t>
+  </si>
+  <si>
+    <t>geo_unit</t>
+  </si>
+  <si>
+    <t>DISTINCT(district)</t>
+  </si>
+  <si>
+    <t>1=1</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>DISTINCT(village)</t>
+  </si>
+  <si>
+    <t>district=?</t>
+  </si>
+  <si>
+    <t>linked_form_id</t>
+  </si>
+  <si>
+    <t>columnValue</t>
+  </si>
+  <si>
+    <t>[data('district')]</t>
+  </si>
+  <si>
+    <t>authorizer_id</t>
+  </si>
+  <si>
+    <t>subsector_type</t>
+  </si>
+  <si>
+    <t>Choose the subsector of the business</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>(data(sector_type) === 1 || data(sector_type) === 2)</t>
+  </si>
+  <si>
+    <t>crop_type</t>
+  </si>
+  <si>
+    <t>display.title.text.sw</t>
+  </si>
+  <si>
+    <t>Trading/Sales</t>
+  </si>
+  <si>
+    <t>Wafanyabiashara wa Jumla</t>
+  </si>
+  <si>
+    <t>Wafanyabiashara wa Rejareja</t>
+  </si>
+  <si>
+    <t>Usafirishaji</t>
+  </si>
+  <si>
+    <t>Kukodi au Kibarua</t>
+  </si>
+  <si>
+    <t>Agricultural Processing</t>
+  </si>
+  <si>
+    <t>Kuongezea thamani bidhaa za kilimo</t>
+  </si>
+  <si>
+    <t>Repairs/technicians</t>
+  </si>
+  <si>
+    <t>Fundi</t>
+  </si>
+  <si>
+    <t>Non-agricultural Services</t>
+  </si>
+  <si>
+    <t>Sekta isiyo ya kilimo</t>
+  </si>
+  <si>
+    <t>Sekta ya Kifedha</t>
+  </si>
+  <si>
+    <t>crop_type_list</t>
+  </si>
+  <si>
+    <t>maize</t>
+  </si>
+  <si>
+    <t>mahindi</t>
+  </si>
+  <si>
+    <t>beans</t>
+  </si>
+  <si>
+    <t>maharage</t>
+  </si>
+  <si>
+    <t>field peas</t>
+  </si>
+  <si>
+    <t>mikunde</t>
+  </si>
+  <si>
+    <t>cow peas</t>
+  </si>
+  <si>
+    <t>njegere</t>
+  </si>
+  <si>
+    <t>green gram</t>
+  </si>
+  <si>
+    <t>choroko</t>
+  </si>
+  <si>
+    <t>groundnuts</t>
+  </si>
+  <si>
+    <t>karanga</t>
+  </si>
+  <si>
+    <t>sunflower</t>
+  </si>
+  <si>
+    <t>alizeti</t>
+  </si>
+  <si>
+    <t>sesame</t>
+  </si>
+  <si>
+    <t>ufuta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grapes </t>
+  </si>
+  <si>
+    <t>zabibu</t>
+  </si>
+  <si>
+    <t>greens</t>
+  </si>
+  <si>
+    <t>mboga za majani</t>
+  </si>
+  <si>
+    <t>fruits</t>
+  </si>
+  <si>
+    <t>matunda</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viungo </t>
+  </si>
+  <si>
+    <t>cereals/legumes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nafaka </t>
+  </si>
+  <si>
+    <t>cash crops</t>
+  </si>
+  <si>
+    <t>mazao ya biashara</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>ndizi</t>
+  </si>
+  <si>
+    <t>sugarcane</t>
+  </si>
+  <si>
+    <t>miwa</t>
+  </si>
+  <si>
+    <t>Other crop</t>
+  </si>
+  <si>
+    <t>mazao nyingine</t>
+  </si>
+  <si>
+    <t>cow</t>
+  </si>
+  <si>
+    <t>Ngo'mbe</t>
+  </si>
+  <si>
+    <t>donkey</t>
+  </si>
+  <si>
+    <t>Punda</t>
+  </si>
+  <si>
+    <t>goat</t>
+  </si>
+  <si>
+    <t>mbuzi</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>kondoo</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>nguruwe</t>
+  </si>
+  <si>
+    <t>fowl</t>
+  </si>
+  <si>
+    <t>Ndege (Kuku/Bata)</t>
+  </si>
+  <si>
+    <t>rabbits</t>
+  </si>
+  <si>
+    <t>sungura</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>maziwa</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>mayai</t>
+  </si>
+  <si>
+    <t>butchered meat</t>
+  </si>
+  <si>
+    <t>Nyama iliyochinjwa</t>
+  </si>
+  <si>
+    <t>Other livestock</t>
+  </si>
+  <si>
+    <t>mifugo nyingine</t>
+  </si>
+  <si>
+    <t>subsector_type_list</t>
+  </si>
+  <si>
+    <t>Do you specialize in a specifc crop?</t>
+  </si>
+  <si>
+    <t>choice_item.sector === data(sector_type)</t>
+  </si>
+  <si>
+    <t>_.map(context, function(subsector){
+return { sector: subsector.sector_number, data_value:subsector.subsector_number, display: {title: {text:{"default":subsector.subsector_txt, "sw":subsector.subsector_txt_sw} } }};
 })</t>
   </si>
   <si>
-    <t>veos_csv</t>
-  </si>
-  <si>
-    <t>"village.csv"</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
-    <t>callback</t>
-  </si>
-  <si>
-    <t>true_false_unsure</t>
-  </si>
-  <si>
-    <t>Unsure</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>Trading and Wholesale</t>
-  </si>
-  <si>
-    <t>merchant</t>
-  </si>
-  <si>
-    <t>Merchant/Retail</t>
-  </si>
-  <si>
-    <t>transport</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>hiring</t>
-  </si>
-  <si>
-    <t>Hiring and Labor</t>
-  </si>
-  <si>
-    <t>agri</t>
-  </si>
-  <si>
-    <t>Agri Processing</t>
-  </si>
-  <si>
-    <t>repairs</t>
-  </si>
-  <si>
-    <t>Repairs</t>
-  </si>
-  <si>
-    <t>Non-agri</t>
-  </si>
-  <si>
-    <t>Non-Agri Services</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>network_list</t>
-  </si>
-  <si>
-    <t>airtel</t>
-  </si>
-  <si>
-    <t>Airtel</t>
-  </si>
-  <si>
-    <t>vodacom</t>
-  </si>
-  <si>
-    <t>Vodacom</t>
-  </si>
-  <si>
-    <t>tigo</t>
-  </si>
-  <si>
-    <t>Tigo</t>
-  </si>
-  <si>
-    <t>ward</t>
-  </si>
-  <si>
-    <t>business_owner_age</t>
-  </si>
-  <si>
-    <t>phone_number_network</t>
-  </si>
-  <si>
-    <t>secondary_phone_number_network</t>
-  </si>
-  <si>
-    <t>enroller_id</t>
-  </si>
-  <si>
-    <t>verifier_id</t>
-  </si>
-  <si>
-    <t>What is the age of the business owner?</t>
-  </si>
-  <si>
-    <t>Enter the network for the phone number.</t>
-  </si>
-  <si>
-    <t>Enter the network for the secondary phone number.</t>
-  </si>
-  <si>
-    <t>district_csv</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>Choose the district.</t>
-  </si>
-  <si>
-    <t>select_one_group_by</t>
-  </si>
-  <si>
-    <t>prompt_type_name</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>district_group_by</t>
-  </si>
-  <si>
-    <t>villages_group_by</t>
-  </si>
-  <si>
-    <t>linked_table_id</t>
-  </si>
-  <si>
-    <t>selection</t>
-  </si>
-  <si>
-    <t>selectionArgs</t>
-  </si>
-  <si>
-    <t>fieldName</t>
-  </si>
-  <si>
-    <t>newRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t>openRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t>linked_table</t>
-  </si>
-  <si>
-    <t>geo_unit</t>
-  </si>
-  <si>
-    <t>DISTINCT(district)</t>
-  </si>
-  <si>
-    <t>1=1</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>DISTINCT(village)</t>
-  </si>
-  <si>
-    <t>district=?</t>
-  </si>
-  <si>
-    <t>linked_form_id</t>
-  </si>
-  <si>
-    <t>columnValue</t>
-  </si>
-  <si>
-    <t>[data('district')]</t>
-  </si>
-  <si>
-    <t>authorizer_id</t>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>subsector.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -479,7 +665,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +676,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
         <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -546,7 +750,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -560,9 +764,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -581,6 +782,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1029,24 +1237,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="44.33203125" customWidth="1"/>
-    <col min="8" max="8" width="41.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.69140625" customWidth="1"/>
+    <col min="2" max="3" width="11.3046875" customWidth="1"/>
+    <col min="4" max="4" width="20.4609375" customWidth="1"/>
+    <col min="5" max="5" width="25.15234375" customWidth="1"/>
+    <col min="6" max="6" width="24.69140625" customWidth="1"/>
+    <col min="7" max="7" width="44.3046875" customWidth="1"/>
+    <col min="8" max="8" width="41.69140625" customWidth="1"/>
+    <col min="9" max="9" width="14.3046875" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="1023" width="11.33203125" customWidth="1"/>
+    <col min="11" max="1023" width="11.3046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1092,30 +1300,30 @@
     </row>
     <row r="2" spans="1:13">
       <c r="D2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="D3" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1126,68 +1334,65 @@
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="D5" t="s">
-        <v>13</v>
+      <c r="D5" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="16" customFormat="1">
+      <c r="D6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="15" customFormat="1">
+      <c r="B7" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="15" customFormat="1">
+      <c r="D8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="15" customFormat="1">
+      <c r="B9" s="15" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1195,10 +1400,10 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1206,38 +1411,74 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="D12" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" t="s">
-        <v>101</v>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1253,183 +1494,141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
-    <col min="4" max="4" width="49.33203125" customWidth="1"/>
-    <col min="5" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.69140625" customWidth="1"/>
+    <col min="2" max="2" width="14.921875" customWidth="1"/>
+    <col min="3" max="3" width="17.23046875" customWidth="1"/>
+    <col min="4" max="4" width="37.765625" customWidth="1"/>
+    <col min="5" max="6" width="15.3046875" customWidth="1"/>
+    <col min="7" max="7" width="22.69140625" customWidth="1"/>
+    <col min="8" max="8" width="19.3046875" customWidth="1"/>
+    <col min="9" max="9" width="20.3046875" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
-    <col min="11" max="11" width="32.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="32.69140625" customWidth="1"/>
+    <col min="12" max="12" width="14.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
+    <row r="1" spans="1:12" ht="31.75">
       <c r="A1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.9">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.9">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="84.9" customHeight="1">
+      <c r="A6" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="71.25" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" ht="71.25" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15">
-      <c r="A6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="K6" t="s">
-        <v>121</v>
-      </c>
-      <c r="L6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15">
-      <c r="A7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="I7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="K7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L7" t="s">
-        <v>28</v>
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1445,21 +1644,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" customWidth="1"/>
-    <col min="4" max="1024" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.69140625" customWidth="1"/>
+    <col min="2" max="2" width="25.15234375" customWidth="1"/>
+    <col min="3" max="3" width="24.53515625" customWidth="1"/>
+    <col min="4" max="4" width="28.15234375" customWidth="1"/>
+    <col min="5" max="1024" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.25" customHeight="1">
+    <row r="1" spans="1:4" ht="16.3" customHeight="1">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1469,195 +1669,619 @@
       <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
+      <c r="D1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1">
+        <v>45</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" customHeight="1">
       <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" customHeight="1">
+        <v>45</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.05" customHeight="1">
       <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="C10" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="B9" s="7">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="9">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>59</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14">
+        <v>59</v>
+      </c>
+      <c r="B13">
         <v>-1</v>
       </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="18"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1675,15 +2299,15 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="1022" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.3046875" customWidth="1"/>
+    <col min="4" max="1022" width="11.3046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.75" customHeight="1">
@@ -1750,25 +2374,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="A21:B21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="44.5" customWidth="1"/>
+    <col min="1" max="1" width="18.3046875" customWidth="1"/>
+    <col min="2" max="2" width="25.15234375" customWidth="1"/>
+    <col min="7" max="7" width="17.3046875" customWidth="1"/>
+    <col min="9" max="9" width="44.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1776,16 +2400,16 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>103</v>
+      <c r="B2" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>93</v>
+      <c r="B3" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1801,7 +2425,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1814,7 +2438,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -1822,50 +2446,50 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1873,7 +2497,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1881,7 +2505,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1889,47 +2513,63 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>127</v>
+      <c r="B23" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1948,33 +2588,33 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.84375" customWidth="1"/>
+    <col min="2" max="2" width="40.3046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13">
-      <c r="A2" s="12" t="s">
-        <v>105</v>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="11"/>
+      <c r="B12" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="2597" windowWidth="30497" windowHeight="16440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6780" yWindow="2597" windowWidth="30497" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -367,9 +367,6 @@
     <t>if</t>
   </si>
   <si>
-    <t>(data(sector_type) === 1 || data(sector_type) === 2)</t>
-  </si>
-  <si>
     <t>crop_type</t>
   </si>
   <si>
@@ -589,18 +586,23 @@
     <t>Do you specialize in a specifc crop?</t>
   </si>
   <si>
-    <t>choice_item.sector === data(sector_type)</t>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>"subsector.csv"</t>
   </si>
   <si>
     <t>_.map(context, function(subsector){
-return { sector: subsector.sector_number, data_value:subsector.subsector_number, display: {title: {text:{"default":subsector.subsector_txt, "sw":subsector.subsector_txt_sw} } }};
+subsector.data_value = subsector.subsector_number
+subsector.display = {title: {text:subsector.subsector_txt } };
+return subsector;
 })</t>
   </si>
   <si>
-    <t>end if</t>
-  </si>
-  <si>
-    <t>subsector.csv</t>
+    <t>choice_item.sector_number == data('sector_type')</t>
+  </si>
+  <si>
+    <t>(data('sector_type') === 1 || data('sector_type') === 2)</t>
   </si>
 </sst>
 </file>
@@ -1239,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
@@ -1251,7 +1253,7 @@
     <col min="5" max="5" width="25.15234375" customWidth="1"/>
     <col min="6" max="6" width="24.69140625" customWidth="1"/>
     <col min="7" max="7" width="44.3046875" customWidth="1"/>
-    <col min="8" max="8" width="41.69140625" customWidth="1"/>
+    <col min="8" max="8" width="18.53515625" customWidth="1"/>
     <col min="9" max="9" width="14.3046875" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="1023" width="11.3046875" customWidth="1"/>
@@ -1356,7 +1358,7 @@
         <v>46</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>108</v>
@@ -1365,7 +1367,7 @@
         <v>109</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="15" customFormat="1">
@@ -1373,7 +1375,7 @@
         <v>110</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="15" customFormat="1">
@@ -1381,18 +1383,18 @@
         <v>46</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="15" customFormat="1">
       <c r="B9" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1496,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
@@ -1619,13 +1621,13 @@
     </row>
     <row r="6" spans="1:12" ht="84.9" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>186</v>
@@ -1670,7 +1672,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
@@ -1681,10 +1683,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
         <v>114</v>
-      </c>
-      <c r="D2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" customHeight="1">
@@ -1698,7 +1700,7 @@
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.05" customHeight="1">
@@ -1712,7 +1714,7 @@
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1726,7 +1728,7 @@
         <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1737,10 +1739,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
         <v>119</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1751,10 +1753,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
         <v>121</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1765,10 +1767,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
         <v>123</v>
-      </c>
-      <c r="D8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1782,7 +1784,7 @@
         <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1893,394 +1895,394 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
         <v>127</v>
-      </c>
-      <c r="D25" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" t="s">
         <v>129</v>
-      </c>
-      <c r="D26" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" t="s">
         <v>131</v>
-      </c>
-      <c r="D27" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
       <c r="C28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" t="s">
         <v>133</v>
-      </c>
-      <c r="D28" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
       <c r="C29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" t="s">
         <v>135</v>
-      </c>
-      <c r="D29" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
       <c r="C30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" t="s">
         <v>137</v>
-      </c>
-      <c r="D30" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31">
         <v>7</v>
       </c>
       <c r="C31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" t="s">
         <v>139</v>
-      </c>
-      <c r="D31" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
       <c r="C32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" t="s">
         <v>141</v>
-      </c>
-      <c r="D32" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33">
         <v>9</v>
       </c>
       <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" t="s">
         <v>143</v>
-      </c>
-      <c r="D33" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B34">
         <v>10</v>
       </c>
       <c r="C34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" t="s">
         <v>145</v>
-      </c>
-      <c r="D34" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35">
         <v>11</v>
       </c>
       <c r="C35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" t="s">
         <v>147</v>
-      </c>
-      <c r="D35" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B36">
         <v>12</v>
       </c>
       <c r="C36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" t="s">
         <v>149</v>
-      </c>
-      <c r="D36" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B37">
         <v>13</v>
       </c>
       <c r="C37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" t="s">
         <v>151</v>
-      </c>
-      <c r="D37" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B38">
         <v>14</v>
       </c>
       <c r="C38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" t="s">
         <v>153</v>
-      </c>
-      <c r="D38" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39">
         <v>15</v>
       </c>
       <c r="C39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" t="s">
         <v>155</v>
-      </c>
-      <c r="D39" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40">
         <v>16</v>
       </c>
       <c r="C40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" t="s">
         <v>157</v>
-      </c>
-      <c r="D40" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B41">
         <v>17</v>
       </c>
       <c r="C41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" t="s">
         <v>159</v>
-      </c>
-      <c r="D41" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42">
         <v>18</v>
       </c>
       <c r="C42" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" t="s">
         <v>161</v>
-      </c>
-      <c r="D42" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B43">
         <v>19</v>
       </c>
       <c r="C43" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" t="s">
         <v>163</v>
-      </c>
-      <c r="D43" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B44">
         <v>20</v>
       </c>
       <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s">
         <v>165</v>
-      </c>
-      <c r="D44" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B45">
         <v>21</v>
       </c>
       <c r="C45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" t="s">
         <v>167</v>
-      </c>
-      <c r="D45" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B46">
         <v>22</v>
       </c>
       <c r="C46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" t="s">
         <v>169</v>
-      </c>
-      <c r="D46" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47">
         <v>23</v>
       </c>
       <c r="C47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" t="s">
         <v>171</v>
-      </c>
-      <c r="D47" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B48">
         <v>24</v>
       </c>
       <c r="C48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" t="s">
         <v>173</v>
-      </c>
-      <c r="D48" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B49">
         <v>25</v>
       </c>
       <c r="C49" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" t="s">
         <v>175</v>
-      </c>
-      <c r="D49" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B50">
         <v>26</v>
       </c>
       <c r="C50" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" t="s">
         <v>177</v>
-      </c>
-      <c r="D50" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51">
         <v>27</v>
       </c>
       <c r="C51" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" t="s">
         <v>179</v>
-      </c>
-      <c r="D51" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B52">
         <v>28</v>
       </c>
       <c r="C52" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" t="s">
         <v>181</v>
-      </c>
-      <c r="D52" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2457,7 +2459,7 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -20,19 +20,11 @@
     <sheet name="prompt_types" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="206">
   <si>
     <t>comments</t>
   </si>
@@ -155,9 +147,6 @@
   </si>
   <si>
     <t>firm_size</t>
-  </si>
-  <si>
-    <t>What is the size of this firm?</t>
   </si>
   <si>
     <t>subvillage</t>
@@ -604,12 +593,66 @@
   <si>
     <t>(data('sector_type') === 1 || data('sector_type') === 2)</t>
   </si>
+  <si>
+    <t>display.prompt.text.sw</t>
+  </si>
+  <si>
+    <t>Chagua Kijiji</t>
+  </si>
+  <si>
+    <t>Andika jina la biashara</t>
+  </si>
+  <si>
+    <t>Chagua sekta ya Biashara</t>
+  </si>
+  <si>
+    <t>Umri wa mmiliki wa baiashara(Miaka)</t>
+  </si>
+  <si>
+    <t>Jinsia ya mmiliki wa biashara</t>
+  </si>
+  <si>
+    <t>Mwanamke</t>
+  </si>
+  <si>
+    <t>Mwanaume</t>
+  </si>
+  <si>
+    <t>Halotel</t>
+  </si>
+  <si>
+    <t>halotel</t>
+  </si>
+  <si>
+    <t>What is the size of the firm (number of paid employees, not including the owner)?</t>
+  </si>
+  <si>
+    <t>Biashara hii ina ukubwa gani (idadi ya waajiriwa, pasipo kujumuisha mmiliki wa biashara)</t>
+  </si>
+  <si>
+    <t>Andika namba ya simu  ya biashara</t>
+  </si>
+  <si>
+    <t>Andika namba ya pili ya simu ya biashara</t>
+  </si>
+  <si>
+    <t>Andika mtandao wa simu wa namba ya pili ya biashara</t>
+  </si>
+  <si>
+    <t>Sio kweli</t>
+  </si>
+  <si>
+    <t>Kweli</t>
+  </si>
+  <si>
+    <t>Sina uhakika</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -653,6 +696,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -662,6 +706,19 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -708,7 +765,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -751,8 +808,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -791,8 +849,50 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -835,6 +935,7 @@
     <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1239,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
@@ -1252,14 +1353,14 @@
     <col min="4" max="4" width="20.4609375" customWidth="1"/>
     <col min="5" max="5" width="25.15234375" customWidth="1"/>
     <col min="6" max="6" width="24.69140625" customWidth="1"/>
-    <col min="7" max="7" width="44.3046875" customWidth="1"/>
-    <col min="8" max="8" width="18.53515625" customWidth="1"/>
-    <col min="9" max="9" width="14.3046875" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="1023" width="11.3046875" customWidth="1"/>
+    <col min="7" max="8" width="44.3046875" customWidth="1"/>
+    <col min="9" max="9" width="18.53515625" customWidth="1"/>
+    <col min="10" max="10" width="14.3046875" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="1024" width="11.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,54 +1382,63 @@
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="D2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.9">
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
         <v>88</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="D3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" t="s">
-        <v>89</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>52</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.9">
       <c r="D4" t="s">
         <v>23</v>
       </c>
@@ -1336,79 +1446,94 @@
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.9">
       <c r="D5" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="16" customFormat="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="16" customFormat="1">
       <c r="D6" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="15" customFormat="1">
+      <c r="B7" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="15" customFormat="1">
+      <c r="D8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="15" customFormat="1">
-      <c r="B7" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="15" customFormat="1">
-      <c r="D8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="H8" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="15" customFormat="1">
+      <c r="B9" s="15" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="15" customFormat="1">
-      <c r="B9" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14" ht="15.9">
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>79</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.9">
       <c r="D11" t="s">
         <v>13</v>
       </c>
@@ -1421,19 +1546,25 @@
       <c r="G11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="H11" s="27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="31.75">
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="F12" t="s">
         <v>40</v>
       </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="G12" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.9">
       <c r="D13" t="s">
         <v>23</v>
       </c>
@@ -1441,56 +1572,63 @@
         <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>51</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>80</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.9">
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
         <v>43</v>
       </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="H15" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="31.75">
       <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1519,101 +1657,101 @@
   <sheetData>
     <row r="1" spans="1:12" ht="31.75">
       <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="C1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="E1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.9">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
         <v>96</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
         <v>97</v>
       </c>
-      <c r="F2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="I2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.9">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
         <v>96</v>
       </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L3" t="s">
         <v>28</v>
@@ -1621,16 +1759,16 @@
     </row>
     <row r="6" spans="1:12" ht="84.9" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1649,7 +1787,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
@@ -1672,124 +1810,124 @@
         <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
         <v>113</v>
-      </c>
-      <c r="D2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" customHeight="1">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.05" customHeight="1">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="7">
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
         <v>118</v>
-      </c>
-      <c r="D6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
         <v>120</v>
-      </c>
-      <c r="D7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="7">
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" t="s">
         <v>122</v>
-      </c>
-      <c r="D8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="7">
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.9">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="8">
         <v>0</v>
@@ -1797,10 +1935,13 @@
       <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.9">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
@@ -1808,38 +1949,50 @@
       <c r="C12" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.9">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>-1</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.9">
       <c r="A15" t="s">
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.9">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1849,41 +2002,47 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="18"/>
@@ -1895,404 +2054,399 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
         <v>126</v>
-      </c>
-      <c r="D25" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" t="s">
         <v>128</v>
-      </c>
-      <c r="D26" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" t="s">
         <v>130</v>
-      </c>
-      <c r="D27" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
       <c r="C28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" t="s">
         <v>132</v>
-      </c>
-      <c r="D28" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
       <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" t="s">
         <v>134</v>
-      </c>
-      <c r="D29" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
       <c r="C30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" t="s">
         <v>136</v>
-      </c>
-      <c r="D30" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31">
         <v>7</v>
       </c>
       <c r="C31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" t="s">
         <v>138</v>
-      </c>
-      <c r="D31" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
       <c r="C32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" t="s">
         <v>140</v>
-      </c>
-      <c r="D32" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B33">
         <v>9</v>
       </c>
       <c r="C33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" t="s">
         <v>142</v>
-      </c>
-      <c r="D33" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B34">
         <v>10</v>
       </c>
       <c r="C34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" t="s">
         <v>144</v>
-      </c>
-      <c r="D34" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B35">
         <v>11</v>
       </c>
       <c r="C35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" t="s">
         <v>146</v>
-      </c>
-      <c r="D35" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36">
         <v>12</v>
       </c>
       <c r="C36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" t="s">
         <v>148</v>
-      </c>
-      <c r="D36" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B37">
         <v>13</v>
       </c>
       <c r="C37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" t="s">
         <v>150</v>
-      </c>
-      <c r="D37" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B38">
         <v>14</v>
       </c>
       <c r="C38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" t="s">
         <v>152</v>
-      </c>
-      <c r="D38" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B39">
         <v>15</v>
       </c>
       <c r="C39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" t="s">
         <v>154</v>
-      </c>
-      <c r="D39" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40">
         <v>16</v>
       </c>
       <c r="C40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" t="s">
         <v>156</v>
-      </c>
-      <c r="D40" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41">
         <v>17</v>
       </c>
       <c r="C41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" t="s">
         <v>158</v>
-      </c>
-      <c r="D41" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B42">
         <v>18</v>
       </c>
       <c r="C42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" t="s">
         <v>160</v>
-      </c>
-      <c r="D42" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B43">
         <v>19</v>
       </c>
       <c r="C43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" t="s">
         <v>162</v>
-      </c>
-      <c r="D43" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B44">
         <v>20</v>
       </c>
       <c r="C44" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" t="s">
         <v>164</v>
-      </c>
-      <c r="D44" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B45">
         <v>21</v>
       </c>
       <c r="C45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" t="s">
         <v>166</v>
-      </c>
-      <c r="D45" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B46">
         <v>22</v>
       </c>
       <c r="C46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" t="s">
         <v>168</v>
-      </c>
-      <c r="D46" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B47">
         <v>23</v>
       </c>
       <c r="C47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" t="s">
         <v>170</v>
-      </c>
-      <c r="D47" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B48">
         <v>24</v>
       </c>
       <c r="C48" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" t="s">
         <v>172</v>
-      </c>
-      <c r="D48" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B49">
         <v>25</v>
       </c>
       <c r="C49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" t="s">
         <v>174</v>
-      </c>
-      <c r="D49" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B50">
         <v>26</v>
       </c>
       <c r="C50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" t="s">
         <v>176</v>
-      </c>
-      <c r="D50" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B51">
         <v>27</v>
       </c>
       <c r="C51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" t="s">
         <v>178</v>
-      </c>
-      <c r="D51" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52">
         <v>28</v>
       </c>
       <c r="C52" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" t="s">
         <v>180</v>
-      </c>
-      <c r="D52" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2403,7 +2557,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2411,7 +2565,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2427,7 +2581,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2440,7 +2594,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -2448,18 +2602,18 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2475,7 +2629,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2507,7 +2661,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2515,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2523,7 +2677,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2531,7 +2685,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2539,15 +2693,15 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2555,15 +2709,15 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2571,7 +2725,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2601,7 +2755,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>3</v>
@@ -2609,10 +2763,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -19,12 +19,12 @@
     <sheet name="model" sheetId="6" r:id="rId5"/>
     <sheet name="prompt_types" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="215">
   <si>
     <t>comments</t>
   </si>
@@ -591,9 +591,6 @@
     <t>choice_item.sector_number == data('sector_type')</t>
   </si>
   <si>
-    <t>(data('sector_type') === 1 || data('sector_type') === 2)</t>
-  </si>
-  <si>
     <t>display.prompt.text.sw</t>
   </si>
   <si>
@@ -646,13 +643,43 @@
   </si>
   <si>
     <t>Sina uhakika</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>business_owner_name</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the business owners name? </t>
+  </si>
+  <si>
+    <t>Do you consent to participate?</t>
+  </si>
+  <si>
+    <t>(data('sector_type') === 1 || data('sector_type') === 2 || data('sector_type') === 5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -719,6 +746,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -810,7 +844,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -890,6 +924,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1340,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
@@ -1383,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1405,194 +1442,197 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" t="s">
-        <v>83</v>
+      <c r="A2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.9">
+        <v>213</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="D3" t="s">
         <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>189</v>
+        <v>83</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.9">
       <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.9">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H5" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.9">
+      <c r="D6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.9">
-      <c r="D5" s="19" t="s">
+    <row r="7" spans="1:14" s="16" customFormat="1">
+      <c r="D7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="16" customFormat="1">
-      <c r="D6" s="16" t="s">
+      <c r="E7" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="15" customFormat="1">
+      <c r="B8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="15" customFormat="1">
+      <c r="D9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="15" customFormat="1">
-      <c r="B7" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="15" customFormat="1">
-      <c r="D8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G9" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H9" s="25" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="15" customFormat="1">
-      <c r="B9" s="15" t="s">
+    <row r="10" spans="1:14" s="15" customFormat="1">
+      <c r="B10" s="15" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.9">
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.9">
       <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="31.75">
+        <v>212</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.9">
       <c r="D12" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>199</v>
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.9">
       <c r="D13" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>37</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="31.75">
       <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>80</v>
+        <v>40</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.9">
@@ -1600,16 +1640,16 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="31.75">
+        <v>51</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="D16" t="s">
         <v>13</v>
       </c>
@@ -1617,13 +1657,44 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" ht="15.9">
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" ht="31.75">
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
         <v>76</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G18" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="34" t="s">
-        <v>202</v>
+      <c r="H18" s="34" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1784,10 +1855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D13"/>
+      <selection activeCell="C19" sqref="A18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
@@ -1936,7 +2007,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.9">
@@ -1950,7 +2021,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.9">
@@ -1964,7 +2035,7 @@
         <v>59</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.9">
@@ -1978,7 +2049,7 @@
         <v>33</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.9">
@@ -1992,106 +2063,100 @@
         <v>34</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="A18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>68</v>
+      <c r="A19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="18" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22" s="18" t="s">
+      <c r="B24" s="18" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="18"/>
+      <c r="C24" s="18" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" t="s">
-        <v>126</v>
-      </c>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" t="s">
-        <v>128</v>
-      </c>
+      <c r="A26" s="18"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>124</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2099,13 +2164,13 @@
         <v>124</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2113,13 +2178,13 @@
         <v>124</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2127,13 +2192,13 @@
         <v>124</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2141,13 +2206,13 @@
         <v>124</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2155,13 +2220,13 @@
         <v>124</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2169,13 +2234,13 @@
         <v>124</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2183,13 +2248,13 @@
         <v>124</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2197,13 +2262,13 @@
         <v>124</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2211,13 +2276,13 @@
         <v>124</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2225,13 +2290,13 @@
         <v>124</v>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2239,13 +2304,13 @@
         <v>124</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2253,13 +2318,13 @@
         <v>124</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2267,13 +2332,13 @@
         <v>124</v>
       </c>
       <c r="B40">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2281,13 +2346,13 @@
         <v>124</v>
       </c>
       <c r="B41">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2295,13 +2360,13 @@
         <v>124</v>
       </c>
       <c r="B42">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2309,13 +2374,13 @@
         <v>124</v>
       </c>
       <c r="B43">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2323,13 +2388,13 @@
         <v>124</v>
       </c>
       <c r="B44">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2337,13 +2402,13 @@
         <v>124</v>
       </c>
       <c r="B45">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2351,13 +2416,13 @@
         <v>124</v>
       </c>
       <c r="B46">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2365,13 +2430,13 @@
         <v>124</v>
       </c>
       <c r="B47">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D47" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2379,13 +2444,13 @@
         <v>124</v>
       </c>
       <c r="B48">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D48" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2393,13 +2458,13 @@
         <v>124</v>
       </c>
       <c r="B49">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D49" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2407,13 +2472,13 @@
         <v>124</v>
       </c>
       <c r="B50">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D50" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2421,13 +2486,13 @@
         <v>124</v>
       </c>
       <c r="B51">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D51" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2435,12 +2500,40 @@
         <v>124</v>
       </c>
       <c r="B52">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54">
         <v>28</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C54" t="s">
         <v>179</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D54" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2530,10 +2623,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45"/>
@@ -2553,11 +2646,11 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>82</v>
+      <c r="B2" s="17" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2565,15 +2658,15 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2581,23 +2674,23 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2605,7 +2698,7 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2613,55 +2706,55 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2669,7 +2762,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2677,7 +2770,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2685,31 +2778,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2717,14 +2810,30 @@
         <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>106</v>
       </c>
     </row>

--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="760" windowWidth="34520" windowHeight="20040" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1400" yWindow="1900" windowWidth="34520" windowHeight="20040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="323">
   <si>
     <t>comments</t>
   </si>
@@ -1010,6 +1010,12 @@
 subsector.display = {title: {text:{default:subsector.subsector_txt, sw:subsector.subsector_txt_sw }}};
 return subsector;
 })</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>(data('enrollment_date') !== null &amp;&amp; data('enrollment_date') !== undefined) ? data('enrollment_date') : new Date()</t>
   </si>
 </sst>
 </file>
@@ -1965,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2081,10 +2087,18 @@
       <c r="H3" s="6"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" ht="120">
       <c r="A4" s="24"/>
+      <c r="D4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="H4" s="6"/>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="30" t="s">
@@ -2673,7 +2687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3734,7 +3748,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1900" windowWidth="34520" windowHeight="20040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="319">
   <si>
     <t>comments</t>
   </si>
@@ -294,9 +294,6 @@
     <t>selectionArgs</t>
   </si>
   <si>
-    <t>fieldName</t>
-  </si>
-  <si>
     <t>newRowInitialElementKeyToValueMap</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
     <t>geo_unit</t>
   </si>
   <si>
-    <t>DISTINCT(district)</t>
-  </si>
-  <si>
     <t>1=1</t>
   </si>
   <si>
@@ -321,9 +315,6 @@
     <t>{}</t>
   </si>
   <si>
-    <t>DISTINCT(village)</t>
-  </si>
-  <si>
     <t>district=?</t>
   </si>
   <si>
@@ -766,9 +757,6 @@
   </si>
   <si>
     <t>sw:Choose the ward.</t>
-  </si>
-  <si>
-    <t>DISTINCT(ward)</t>
   </si>
   <si>
     <t>ward=?</t>
@@ -1971,7 +1959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -2019,7 +2007,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2040,36 +2028,36 @@
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="b">
@@ -2079,10 +2067,10 @@
     <row r="3" spans="1:18">
       <c r="A3" s="24"/>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H3" s="6"/>
       <c r="M3" s="2"/>
@@ -2090,14 +2078,14 @@
     <row r="4" spans="1:18" ht="120">
       <c r="A4" s="24"/>
       <c r="D4" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H4" s="6"/>
       <c r="M4" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2105,7 +2093,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>84</v>
@@ -2117,10 +2105,10 @@
         <v>81</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2128,22 +2116,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2151,7 +2139,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>85</v>
@@ -2163,10 +2151,10 @@
         <v>50</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2183,18 +2171,18 @@
         <v>47</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>43</v>
@@ -2206,36 +2194,36 @@
         <v>48</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="14" customFormat="1" ht="60">
       <c r="A10" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O10" s="23"/>
       <c r="P10" s="23"/>
@@ -2244,10 +2232,10 @@
     <row r="11" spans="1:18" s="9" customFormat="1">
       <c r="A11" s="30"/>
       <c r="B11" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
@@ -2256,43 +2244,43 @@
     </row>
     <row r="12" spans="1:18" s="9" customFormat="1" ht="216">
       <c r="A12" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="P12" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="O12" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="P12" s="25" t="s">
-        <v>269</v>
-      </c>
       <c r="Q12" s="28" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="9" customFormat="1">
       <c r="A13" s="30"/>
       <c r="B13" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7"/>
       <c r="N13" s="25"/>
@@ -2306,16 +2294,16 @@
         <v>23</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N14" s="25" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
@@ -2324,7 +2312,7 @@
     <row r="15" spans="1:18" s="9" customFormat="1">
       <c r="A15" s="30"/>
       <c r="B15" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
@@ -2334,7 +2322,7 @@
     <row r="16" spans="1:18" s="9" customFormat="1">
       <c r="A16" s="30"/>
       <c r="B16" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
@@ -2349,28 +2337,28 @@
         <v>23</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="30"/>
       <c r="B18" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:18" ht="101" customHeight="1">
       <c r="A19" s="30" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>37</v>
@@ -2382,55 +2370,55 @@
         <v>77</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="26" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="84">
       <c r="A20" s="30"/>
       <c r="D20" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="30"/>
       <c r="B21" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:18" ht="24">
       <c r="A22" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>35</v>
@@ -2439,15 +2427,15 @@
         <v>36</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="48">
       <c r="A23" s="30" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>37</v>
@@ -2456,28 +2444,28 @@
         <v>39</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N23" s="23" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="30"/>
       <c r="B24" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
@@ -2486,7 +2474,7 @@
     </row>
     <row r="25" spans="1:18" s="10" customFormat="1" ht="48">
       <c r="A25" s="30" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>23</v>
@@ -2498,26 +2486,26 @@
         <v>49</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P25" s="27"/>
       <c r="Q25" s="27"/>
       <c r="R25" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>64</v>
@@ -2529,16 +2517,16 @@
         <v>78</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N26" s="23" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="30"/>
       <c r="B27" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H27" s="6"/>
       <c r="N27" s="23"/>
@@ -2546,7 +2534,7 @@
     <row r="28" spans="1:18">
       <c r="A28" s="30"/>
       <c r="B28" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H28" s="6"/>
       <c r="N28" s="23"/>
@@ -2557,35 +2545,35 @@
         <v>13</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="N29" s="23" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="30"/>
       <c r="B30" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H30" s="6"/>
       <c r="N30" s="23"/>
     </row>
     <row r="31" spans="1:18" s="10" customFormat="1" ht="96">
       <c r="A31" s="30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>23</v>
@@ -2597,26 +2585,26 @@
         <v>42</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N31" s="29" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="O31" s="27" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P31" s="27"/>
       <c r="Q31" s="27"/>
       <c r="R31" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="48">
       <c r="A32" s="30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>64</v>
@@ -2628,48 +2616,48 @@
         <v>79</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="30"/>
       <c r="B33" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="30"/>
       <c r="B34" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="30"/>
       <c r="B35" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="30"/>
       <c r="D36" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="30"/>
       <c r="B37" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2685,10 +2673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2700,14 +2688,13 @@
     <col min="5" max="6" width="15.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="33" style="1" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
@@ -2724,7 +2711,7 @@
         <v>86</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>87</v>
@@ -2735,129 +2722,117 @@
       <c r="I1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="K1" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>97</v>
+      <c r="I3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" customHeight="1">
+    <row r="4" spans="1:11" ht="16" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>97</v>
+        <v>245</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" customHeight="1">
+    <row r="5" spans="1:11" ht="16" customHeight="1">
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="7" spans="1:12" ht="85" customHeight="1">
+      <c r="I5" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="85" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -2900,7 +2875,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
@@ -2908,13 +2883,13 @@
         <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" customHeight="1">
@@ -2922,13 +2897,13 @@
         <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" customHeight="1">
@@ -2936,13 +2911,13 @@
         <v>43</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2950,13 +2925,13 @@
         <v>43</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2964,13 +2939,13 @@
         <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2978,13 +2953,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2992,13 +2967,13 @@
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3006,13 +2981,13 @@
         <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3026,7 +3001,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3040,7 +3015,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3054,12 +3029,12 @@
         <v>57</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>62</v>
@@ -3068,12 +3043,12 @@
         <v>32</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>63</v>
@@ -3082,49 +3057,49 @@
         <v>33</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3174,447 +3149,447 @@
         <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B59" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C59" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D59" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>291</v>
+      </c>
+      <c r="B60" t="s">
+        <v>294</v>
+      </c>
+      <c r="C60" t="s">
+        <v>294</v>
+      </c>
+      <c r="D60" t="s">
         <v>295</v>
-      </c>
-      <c r="B60" t="s">
-        <v>298</v>
-      </c>
-      <c r="C60" t="s">
-        <v>298</v>
-      </c>
-      <c r="D60" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B61" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C61" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D61" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B62" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C62" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D62" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3658,13 +3633,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.75" customHeight="1">
@@ -3699,7 +3674,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3712,24 +3687,24 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3776,14 +3751,14 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -3792,7 +3767,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -3801,7 +3776,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -3832,7 +3807,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -3843,10 +3818,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -3855,10 +3830,10 @@
     </row>
     <row r="10" spans="1:8" s="14" customFormat="1">
       <c r="A10" s="14" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -3868,7 +3843,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="14" customFormat="1">
@@ -3876,7 +3851,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -3893,10 +3868,10 @@
     </row>
     <row r="14" spans="1:8" s="14" customFormat="1">
       <c r="A14" s="14" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="14" customFormat="1">
@@ -3931,7 +3906,7 @@
     </row>
     <row r="18" spans="1:4" s="14" customFormat="1">
       <c r="A18" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>73</v>
@@ -3944,7 +3919,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="14" customFormat="1">
@@ -3959,7 +3934,7 @@
     </row>
     <row r="21" spans="1:4" s="14" customFormat="1">
       <c r="A21" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>74</v>
@@ -3988,7 +3963,7 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4012,31 +3987,31 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4083,7 +4058,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>83</v>
@@ -4118,7 +4093,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>11</v>
@@ -4126,18 +4101,18 @@
     </row>
     <row r="2" spans="1:2" ht="144">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="156">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:2">

--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5120" yWindow="6080" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="332">
   <si>
     <t>comments</t>
   </si>
@@ -696,9 +696,6 @@
     <t>constraint</t>
   </si>
   <si>
-    <t>constraint_message</t>
-  </si>
-  <si>
     <t>select_one_with_other</t>
   </si>
   <si>
@@ -795,18 +792,9 @@
     <t>decline_business_owner_age</t>
   </si>
   <si>
-    <t>Business owner age must be between 15 and 100</t>
-  </si>
-  <si>
-    <t>constraint_message.sw</t>
-  </si>
-  <si>
     <t>sw:Business owner age must be between 15 and 100</t>
   </si>
   <si>
-    <t>Size of the firm must be greater than 0</t>
-  </si>
-  <si>
     <t>sw:Size of the firm must be greater than 0</t>
   </si>
   <si>
@@ -871,18 +859,6 @@
   </si>
   <si>
     <t>phone_number_validation</t>
-  </si>
-  <si>
-    <t>(function(){
-  var phNum = data('phone_number');
-  if (phNum === null || phNum === undefined) {
-    return false;
-  } else {
-    if (phNum.length &lt; 10) { return false;}
-    if (phNum.charAt(0) !== '0') { return false; }
-    return true;
-  }
-})()</t>
   </si>
   <si>
     <t>secondary_phone_number_validation</t>
@@ -1004,6 +980,80 @@
   </si>
   <si>
     <t>(data('enrollment_date') !== null &amp;&amp; data('enrollment_date') !== undefined) ? data('enrollment_date') : new Date()</t>
+  </si>
+  <si>
+    <t>region_group_by</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Choose the region.</t>
+  </si>
+  <si>
+    <t>sw:Choose the region.</t>
+  </si>
+  <si>
+    <t>region=?</t>
+  </si>
+  <si>
+    <t>[data('region')]</t>
+  </si>
+  <si>
+    <t>primary_phone_number</t>
+  </si>
+  <si>
+    <t>primary_phone_number_validation</t>
+  </si>
+  <si>
+    <t>(function(){
+  var phNum = data('primary_phone_number');
+  if (phNum === null || phNum === undefined) {
+    return false;
+  } else {
+    if (phNum.length &lt; 10) { return false;}
+    if (phNum.charAt(0) !== '0') { return false; }
+    return true;
+  }
+})()</t>
+  </si>
+  <si>
+    <t>(data('consent') !== 'yes') || calculates.primary_phone_number_validation()</t>
+  </si>
+  <si>
+    <t>(function(){
+  var phNum = data('phone_number');
+  if (phNum === null || phNum === undefined) {
+    return false;
+  } else {
+    var primaryPhNum = data('primary_phone_number');
+    if (phNum !== primaryPhNum) { return false; }
+    if (phNum.length &lt; 10) { return false;}
+    if (phNum.charAt(0) !== '0') { return false; }
+    return true;
+  }
+})()</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text.sw</t>
+  </si>
+  <si>
+    <t>Business owner age must be between 15 and 100.</t>
+  </si>
+  <si>
+    <t>Size of the firm must be greater than 0.</t>
+  </si>
+  <si>
+    <t>Phone number must begin with 0 and be 10 digits.</t>
+  </si>
+  <si>
+    <t>sw:Phone number must begin with 0 and be 10 digits.</t>
+  </si>
+  <si>
+    <t>Phone number must begin with 0, be 10 digits, and match previously entered phone number.</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1124,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1111,12 +1161,6 @@
         <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1127,7 +1171,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="174">
+  <cellStyleXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1230,6 +1274,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1367,9 +1445,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1377,8 +1452,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="174">
+  <cellStyles count="208">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1465,6 +1543,23 @@
     <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1550,6 +1645,23 @@
     <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Normal 5" xfId="101"/>
@@ -1957,10 +2069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1984,7 +2096,7 @@
     <col min="1026" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" ht="24">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -2031,13 +2143,13 @@
         <v>222</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>223</v>
+        <v>325</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>257</v>
+        <v>326</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2070,7 +2182,7 @@
         <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H3" s="6"/>
       <c r="M3" s="2"/>
@@ -2078,585 +2190,649 @@
     <row r="4" spans="1:18" ht="120">
       <c r="A4" s="24"/>
       <c r="D4" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H4" s="6"/>
       <c r="M4" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="30" t="s">
+      <c r="N6" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H7" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="30" t="s">
+      <c r="N7" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="30" t="s">
+      <c r="N8" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="30" t="s">
+      <c r="N9" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="60">
+      <c r="A10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D11" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="14" customFormat="1" ht="60">
-      <c r="A10" s="30" t="s">
+      <c r="N11" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="14" customFormat="1" ht="60">
+      <c r="A12" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="D12" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G12" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H12" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="L10" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-    </row>
-    <row r="11" spans="1:18" s="9" customFormat="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-    </row>
-    <row r="12" spans="1:18" s="9" customFormat="1" ht="216">
-      <c r="A12" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="O12" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="P12" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q12" s="28" t="s">
-        <v>266</v>
-      </c>
+      <c r="L12" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
     </row>
     <row r="13" spans="1:18" s="9" customFormat="1">
-      <c r="A13" s="30"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="9" t="s">
         <v>103</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="H13" s="7"/>
+        <v>295</v>
+      </c>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
-      <c r="Q13" s="28"/>
-    </row>
-    <row r="14" spans="1:18" s="9" customFormat="1" ht="84">
-      <c r="A14" s="30"/>
+      <c r="Q13" s="25"/>
+    </row>
+    <row r="14" spans="1:18" s="9" customFormat="1" ht="216">
+      <c r="A14" s="29" t="s">
+        <v>201</v>
+      </c>
       <c r="D14" s="9" t="s">
-        <v>23</v>
+        <v>257</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q14" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="G14" s="9" t="s">
+    </row>
+    <row r="15" spans="1:18" s="9" customFormat="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-    </row>
-    <row r="15" spans="1:18" s="9" customFormat="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="9" t="s">
-        <v>173</v>
-      </c>
+      <c r="H15" s="7"/>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-    </row>
-    <row r="16" spans="1:18" s="9" customFormat="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="N16" s="25"/>
+      <c r="Q15" s="28"/>
+    </row>
+    <row r="16" spans="1:18" s="9" customFormat="1" ht="84">
+      <c r="A16" s="29"/>
+      <c r="D16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>276</v>
+      </c>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
     </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:18" s="9" customFormat="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+    </row>
+    <row r="18" spans="1:18" s="9" customFormat="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H19" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="30"/>
-      <c r="B18" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:18" ht="101" customHeight="1">
-      <c r="A19" s="30" t="s">
+      <c r="N19" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="29"/>
+      <c r="B20" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:18" ht="101" customHeight="1">
+      <c r="A21" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="P19" s="2" t="s">
+      <c r="N21" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q21" s="26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="84">
+      <c r="A22" s="29"/>
+      <c r="D22" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="29"/>
+      <c r="B23" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:18" ht="24">
+      <c r="A24" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="48">
+      <c r="A25" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q25" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="Q19" s="26" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="84">
-      <c r="A20" s="30"/>
-      <c r="D20" s="1" t="s">
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="29"/>
+      <c r="B26" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="N26" s="23"/>
+      <c r="Q26" s="26"/>
+    </row>
+    <row r="27" spans="1:18" s="10" customFormat="1" ht="60">
+      <c r="A27" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="N27" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="30"/>
-      <c r="B21" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:18" ht="24">
-      <c r="A22" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="48">
-      <c r="A23" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="N23" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q23" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="30"/>
-      <c r="B24" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="N24" s="23"/>
-      <c r="Q24" s="26"/>
-    </row>
-    <row r="25" spans="1:18" s="10" customFormat="1" ht="48">
-      <c r="A25" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="O25" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="30" t="s">
+      <c r="O27" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="P27" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="N26" s="23" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="30"/>
-      <c r="B27" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="N27" s="23"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="30"/>
-      <c r="B28" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="N28" s="23"/>
+      <c r="N28" s="23" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="30"/>
-      <c r="D29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="N29" s="23" t="s">
-        <v>247</v>
-      </c>
+      <c r="A29" s="29"/>
+      <c r="B29" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="N29" s="23"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="30"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="H30" s="6"/>
       <c r="N30" s="23"/>
     </row>
-    <row r="31" spans="1:18" s="10" customFormat="1" ht="96">
-      <c r="A31" s="30" t="s">
+    <row r="31" spans="1:18">
+      <c r="A31" s="29"/>
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="29"/>
+      <c r="B32" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="N32" s="23"/>
+    </row>
+    <row r="33" spans="1:18" s="10" customFormat="1" ht="96">
+      <c r="A33" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G33" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H33" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="N31" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="O31" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="48">
-      <c r="A32" s="30" t="s">
+      <c r="N33" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="O33" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="P33" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="48">
+      <c r="A34" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H34" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="N32" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="30"/>
-      <c r="B33" s="1" t="s">
+      <c r="N34" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="29"/>
+      <c r="B35" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="30"/>
-      <c r="B34" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="30"/>
-      <c r="B35" s="1" t="s">
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="29"/>
+      <c r="B36" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="29"/>
+      <c r="B37" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="29"/>
+      <c r="D38" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="30"/>
-      <c r="D36" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="30"/>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="29"/>
+      <c r="B39" s="1" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2673,10 +2849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2731,7 +2907,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>314</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>91</v>
@@ -2755,12 +2931,12 @@
         <v>95</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>80</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>91</v>
@@ -2772,10 +2948,10 @@
         <v>92</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>318</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>99</v>
+        <v>319</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>95</v>
@@ -2784,12 +2960,12 @@
         <v>95</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>91</v>
@@ -2801,10 +2977,10 @@
         <v>92</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>245</v>
+        <v>99</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>95</v>
@@ -2813,26 +2989,55 @@
         <v>95</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" customHeight="1">
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="7" spans="1:11" ht="85" customHeight="1">
-      <c r="A7" s="8" t="s">
+    <row r="6" spans="1:11" ht="16" customHeight="1">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="8" spans="1:11" ht="85" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>316</v>
+      <c r="D8" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -2883,7 +3088,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>106</v>
@@ -2897,7 +3102,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>58</v>
@@ -2911,7 +3116,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>59</v>
@@ -2925,7 +3130,7 @@
         <v>43</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>60</v>
@@ -2939,7 +3144,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>111</v>
@@ -2953,7 +3158,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>113</v>
@@ -2967,7 +3172,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>115</v>
@@ -2981,7 +3186,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>61</v>
@@ -3034,7 +3239,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>62</v>
@@ -3048,7 +3253,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>63</v>
@@ -3062,16 +3267,16 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3085,7 +3290,7 @@
         <v>194</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3099,7 +3304,7 @@
         <v>197</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3191,7 +3396,7 @@
         <v>118</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>123</v>
@@ -3205,7 +3410,7 @@
         <v>118</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>125</v>
@@ -3219,7 +3424,7 @@
         <v>118</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>127</v>
@@ -3331,7 +3536,7 @@
         <v>118</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>143</v>
@@ -3513,7 +3718,7 @@
         <v>118</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>169</v>
@@ -3527,69 +3732,69 @@
         <v>118</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B59" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C59" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D59" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B60" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C60" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D60" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
+        <v>286</v>
+      </c>
+      <c r="B61" t="s">
         <v>291</v>
       </c>
-      <c r="B61" t="s">
-        <v>296</v>
-      </c>
       <c r="C61" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D61" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B62" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C62" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D62" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -3608,7 +3813,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3720,10 +3925,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3753,12 +3958,12 @@
       <c r="B2" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -3767,7 +3972,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -3776,7 +3981,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -3807,7 +4012,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -3818,7 +4023,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
         <v>101</v>
@@ -3830,7 +4035,7 @@
     </row>
     <row r="10" spans="1:8" s="14" customFormat="1">
       <c r="A10" s="14" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>104</v>
@@ -3843,7 +4048,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="14" customFormat="1">
@@ -3868,10 +4073,10 @@
     </row>
     <row r="14" spans="1:8" s="14" customFormat="1">
       <c r="A14" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="14" customFormat="1">
@@ -3906,7 +4111,7 @@
     </row>
     <row r="18" spans="1:4" s="14" customFormat="1">
       <c r="A18" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>73</v>
@@ -3919,7 +4124,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="14" customFormat="1">
@@ -3934,7 +4139,7 @@
     </row>
     <row r="21" spans="1:4" s="14" customFormat="1">
       <c r="A21" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>74</v>
@@ -3963,7 +4168,7 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3992,33 +4197,41 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4058,7 +4271,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="21" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>83</v>
@@ -4082,37 +4295,45 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="211" customHeight="1">
+      <c r="A2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="174" customHeight="1">
+      <c r="A3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="144">
-      <c r="A2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="156">
-      <c r="A3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>284</v>
+    </row>
+    <row r="4" spans="1:2" ht="175" customHeight="1">
+      <c r="A4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:2">

--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="6080" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="11600" yWindow="5500" windowWidth="28800" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="349">
   <si>
     <t>comments</t>
   </si>
@@ -141,9 +141,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>business_age</t>
-  </si>
-  <si>
     <t>firm_size</t>
   </si>
   <si>
@@ -387,99 +384,27 @@
     <t>maize</t>
   </si>
   <si>
-    <t>mahindi</t>
-  </si>
-  <si>
-    <t>beans</t>
-  </si>
-  <si>
-    <t>maharage</t>
-  </si>
-  <si>
-    <t>field peas</t>
-  </si>
-  <si>
-    <t>mikunde</t>
-  </si>
-  <si>
-    <t>cow peas</t>
-  </si>
-  <si>
-    <t>njegere</t>
-  </si>
-  <si>
-    <t>green gram</t>
-  </si>
-  <si>
-    <t>choroko</t>
-  </si>
-  <si>
     <t>groundnuts</t>
   </si>
   <si>
-    <t>karanga</t>
-  </si>
-  <si>
     <t>sunflower</t>
   </si>
   <si>
-    <t>alizeti</t>
-  </si>
-  <si>
     <t>sesame</t>
   </si>
   <si>
-    <t>ufuta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grapes </t>
-  </si>
-  <si>
-    <t>zabibu</t>
-  </si>
-  <si>
-    <t>greens</t>
-  </si>
-  <si>
-    <t>mboga za majani</t>
-  </si>
-  <si>
     <t>fruits</t>
   </si>
   <si>
-    <t>matunda</t>
-  </si>
-  <si>
     <t>vegetables</t>
   </si>
   <si>
-    <t xml:space="preserve">viungo </t>
-  </si>
-  <si>
-    <t>cereals/legumes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nafaka </t>
-  </si>
-  <si>
-    <t>cash crops</t>
-  </si>
-  <si>
-    <t>mazao ya biashara</t>
-  </si>
-  <si>
     <t>banana</t>
   </si>
   <si>
-    <t>ndizi</t>
-  </si>
-  <si>
     <t>sugarcane</t>
   </si>
   <si>
-    <t>miwa</t>
-  </si>
-  <si>
     <t>cow</t>
   </si>
   <si>
@@ -495,48 +420,24 @@
     <t>goat</t>
   </si>
   <si>
-    <t>mbuzi</t>
-  </si>
-  <si>
     <t>sheep</t>
   </si>
   <si>
-    <t>kondoo</t>
-  </si>
-  <si>
     <t>pig</t>
   </si>
   <si>
-    <t>nguruwe</t>
-  </si>
-  <si>
     <t>fowl</t>
   </si>
   <si>
     <t>Ndege (Kuku/Bata)</t>
   </si>
   <si>
-    <t>rabbits</t>
-  </si>
-  <si>
-    <t>sungura</t>
-  </si>
-  <si>
     <t>milk</t>
   </si>
   <si>
-    <t>maziwa</t>
-  </si>
-  <si>
     <t>eggs</t>
   </si>
   <si>
-    <t>mayai</t>
-  </si>
-  <si>
-    <t>butchered meat</t>
-  </si>
-  <si>
     <t>Nyama iliyochinjwa</t>
   </si>
   <si>
@@ -711,18 +612,6 @@
     <t>butchered_meat</t>
   </si>
   <si>
-    <t>cereals_legumes</t>
-  </si>
-  <si>
-    <t>green_gram</t>
-  </si>
-  <si>
-    <t>cow_peas</t>
-  </si>
-  <si>
-    <t>field_peas</t>
-  </si>
-  <si>
     <t>trading_sales</t>
   </si>
   <si>
@@ -817,9 +706,6 @@
   </si>
   <si>
     <t>(selected('crop_type', 'other'))</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>sw:Yes</t>
@@ -925,9 +811,6 @@
   </si>
   <si>
     <t>((data('sector_type') === 'trading_sales' || data('sector_type') === 'merchant_retail' || data('sector_type') === 'agricultural_processing') &amp;&amp; (data('consent') === 'yes'))</t>
-  </si>
-  <si>
-    <t>sw:other</t>
   </si>
   <si>
     <t>(((data('sector_type') !== 'trading_sales' &amp;&amp; data('sector_type') !== 'merchant_retail' &amp;&amp; data('sector_type') !== 'agricultural_processing') || (data('consent') !== 'yes'))) || (countSelected(data('crop_type')) &lt;= 3) &amp;&amp; (countSelected(data('crop_type')) &gt;0)</t>
@@ -1055,12 +938,180 @@
   <si>
     <t>Phone number must begin with 0, be 10 digits, and match previously entered phone number.</t>
   </si>
+  <si>
+    <t>Maize</t>
+  </si>
+  <si>
+    <t>Mahindi</t>
+  </si>
+  <si>
+    <t>beans_legumes</t>
+  </si>
+  <si>
+    <t>Beans/legumes</t>
+  </si>
+  <si>
+    <t>Jamii maharage</t>
+  </si>
+  <si>
+    <t>Groundnuts</t>
+  </si>
+  <si>
+    <t>Karanga</t>
+  </si>
+  <si>
+    <t>Sunflower</t>
+  </si>
+  <si>
+    <t>Alizeti</t>
+  </si>
+  <si>
+    <t>Sesame</t>
+  </si>
+  <si>
+    <t>Ufuta</t>
+  </si>
+  <si>
+    <t>grapes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grapes </t>
+  </si>
+  <si>
+    <t>Zabibu</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>Matunda</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>Viungo au mboga</t>
+  </si>
+  <si>
+    <t>cereals</t>
+  </si>
+  <si>
+    <t>Cereals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nafaka </t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Ndizi</t>
+  </si>
+  <si>
+    <t>Sugarcane</t>
+  </si>
+  <si>
+    <t>Miwa</t>
+  </si>
+  <si>
+    <t>charcoal</t>
+  </si>
+  <si>
+    <t>Charcoal</t>
+  </si>
+  <si>
+    <t>Mkaa</t>
+  </si>
+  <si>
+    <t>forestry</t>
+  </si>
+  <si>
+    <t>Forestry</t>
+  </si>
+  <si>
+    <t>Mazao ya misitu</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>Donkey</t>
+  </si>
+  <si>
+    <t>Goat</t>
+  </si>
+  <si>
+    <t>Mbuzi</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Kondoo</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Nguruwe</t>
+  </si>
+  <si>
+    <t>Fowl</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Maziwa</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Mayai</t>
+  </si>
+  <si>
+    <t>Butchered meat</t>
+  </si>
+  <si>
+    <t>fish_aquaculture</t>
+  </si>
+  <si>
+    <t>Fish/aquaculture</t>
+  </si>
+  <si>
+    <t>Ufugaji wa samaki</t>
+  </si>
+  <si>
+    <t>What year did this firm begin?</t>
+  </si>
+  <si>
+    <t>sw:What year did this firm begin</t>
+  </si>
+  <si>
+    <t>year_business_started</t>
+  </si>
+  <si>
+    <t>Other crop</t>
+  </si>
+  <si>
+    <t>Mazao nyingine</t>
+  </si>
+  <si>
+    <t>other_livestock</t>
+  </si>
+  <si>
+    <t>Other livestock</t>
+  </si>
+  <si>
+    <t>Mifugo nyingine</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1123,6 +1174,16 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1171,7 +1232,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="208">
+  <cellStyleXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1380,8 +1441,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1455,8 +1530,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="208">
+  <cellStyles count="222">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1560,6 +1640,13 @@
     <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1662,6 +1749,13 @@
     <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Normal 5" xfId="101"/>
@@ -2069,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2119,7 +2213,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2140,36 +2234,36 @@
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="24" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="b">
@@ -2179,10 +2273,10 @@
     <row r="3" spans="1:18">
       <c r="A3" s="24"/>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="H3" s="6"/>
       <c r="M3" s="2"/>
@@ -2190,14 +2284,14 @@
     <row r="4" spans="1:18" ht="120">
       <c r="A4" s="24"/>
       <c r="D4" s="1" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="H4" s="6"/>
       <c r="M4" s="2" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2205,23 +2299,23 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2229,22 +2323,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2252,22 +2346,22 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2275,22 +2369,22 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2304,13 +2398,13 @@
         <v>34</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="60">
@@ -2321,77 +2415,77 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="29" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="14" customFormat="1" ht="60">
       <c r="A12" s="29" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="F12" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>102</v>
-      </c>
       <c r="H12" s="22" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="O12" s="23"/>
       <c r="P12" s="23"/>
@@ -2400,10 +2494,10 @@
     <row r="13" spans="1:18" s="9" customFormat="1">
       <c r="A13" s="29"/>
       <c r="B13" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
@@ -2412,43 +2506,43 @@
     </row>
     <row r="14" spans="1:18" s="9" customFormat="1" ht="216">
       <c r="A14" s="29" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="N14" s="25" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="O14" s="25" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="P14" s="25" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="9" customFormat="1">
       <c r="A15" s="29"/>
       <c r="B15" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="H15" s="7"/>
       <c r="N15" s="25"/>
@@ -2462,16 +2556,16 @@
         <v>23</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
@@ -2480,7 +2574,7 @@
     <row r="17" spans="1:18" s="9" customFormat="1">
       <c r="A17" s="29"/>
       <c r="B17" s="9" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
@@ -2490,350 +2584,373 @@
     <row r="18" spans="1:18" s="9" customFormat="1">
       <c r="A18" s="29"/>
       <c r="B18" s="9" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="29" t="s">
+    <row r="19" spans="1:18" s="14" customFormat="1" ht="13">
+      <c r="A19" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="29"/>
-      <c r="B20" s="14" t="s">
+      <c r="F20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="29"/>
+      <c r="B21" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:18" ht="101" customHeight="1">
+      <c r="A22" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q22" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="84">
+      <c r="A23" s="29"/>
+      <c r="D23" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="29"/>
+      <c r="B24" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:18" ht="24">
+      <c r="A25" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:18" ht="101" customHeight="1">
-      <c r="A21" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="48">
+      <c r="A26" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q26" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="29"/>
+      <c r="B27" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="N27" s="23"/>
+      <c r="Q27" s="26"/>
+    </row>
+    <row r="28" spans="1:18" s="10" customFormat="1" ht="60">
+      <c r="A28" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="N28" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q21" s="26" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="84">
-      <c r="A22" s="29"/>
-      <c r="D22" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="29"/>
-      <c r="B23" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="1:18" ht="24">
-      <c r="A24" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="48">
-      <c r="A25" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="N25" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q25" s="26" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="29"/>
-      <c r="B26" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-      <c r="N26" s="23"/>
-      <c r="Q26" s="26"/>
-    </row>
-    <row r="27" spans="1:18" s="10" customFormat="1" ht="60">
-      <c r="A27" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="O27" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="P27" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q27" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="R27" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="N28" s="23" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="29"/>
-      <c r="B29" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="N29" s="23"/>
+      <c r="H29" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="29"/>
       <c r="B30" s="1" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="H30" s="6"/>
       <c r="N30" s="23"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="29"/>
-      <c r="D31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="N31" s="23" t="s">
-        <v>246</v>
-      </c>
+      <c r="B31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="N31" s="23"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="29"/>
-      <c r="B32" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="N32" s="23"/>
-    </row>
-    <row r="33" spans="1:18" s="10" customFormat="1" ht="96">
-      <c r="A33" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="29"/>
+      <c r="B33" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="N33" s="23"/>
+    </row>
+    <row r="34" spans="1:18" s="10" customFormat="1" ht="96">
+      <c r="A34" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="N33" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="O33" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="P33" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q33" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="R33" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="48">
-      <c r="A34" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="29"/>
-      <c r="B35" s="1" t="s">
+      <c r="H34" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="48">
+      <c r="A35" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="H35" s="11"/>
+      <c r="D35" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="29"/>
       <c r="B36" s="1" t="s">
-        <v>268</v>
+        <v>140</v>
       </c>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="29"/>
       <c r="B37" s="1" t="s">
-        <v>247</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="29"/>
-      <c r="D38" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>250</v>
+      <c r="B38" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="29"/>
-      <c r="B39" s="1" t="s">
-        <v>173</v>
+      <c r="D39" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="29"/>
+      <c r="B40" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2872,150 +2989,150 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>95</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>28</v>
@@ -3028,16 +3145,16 @@
     </row>
     <row r="8" spans="1:11" ht="85" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3053,10 +3170,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3080,124 +3197,124 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="17">
         <v>0</v>
@@ -3206,12 +3323,12 @@
         <v>30</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="17">
         <v>1</v>
@@ -3220,581 +3337,553 @@
         <v>31</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1">
         <v>-1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>120</v>
+      <c r="C28" t="s">
+        <v>293</v>
+      </c>
+      <c r="D28" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="B29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>298</v>
+      </c>
+      <c r="D30" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>300</v>
+      </c>
+      <c r="D31" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>302</v>
+      </c>
+      <c r="D32" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C33" t="s">
+        <v>305</v>
+      </c>
+      <c r="D33" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
+      </c>
+      <c r="B34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" t="s">
+        <v>307</v>
+      </c>
+      <c r="D34" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
+      </c>
+      <c r="B35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" t="s">
+        <v>309</v>
+      </c>
+      <c r="D35" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
+      </c>
+      <c r="B36" t="s">
+        <v>311</v>
+      </c>
+      <c r="C36" t="s">
+        <v>312</v>
+      </c>
+      <c r="D36" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>138</v>
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" t="s">
+        <v>314</v>
+      </c>
+      <c r="D37" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>140</v>
+        <v>117</v>
+      </c>
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" t="s">
+        <v>316</v>
+      </c>
+      <c r="D38" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>142</v>
+        <v>117</v>
+      </c>
+      <c r="B39" t="s">
+        <v>318</v>
+      </c>
+      <c r="C39" t="s">
+        <v>319</v>
+      </c>
+      <c r="D39" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>321</v>
+      </c>
+      <c r="C40" t="s">
+        <v>322</v>
+      </c>
+      <c r="D40" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>146</v>
+        <v>117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" t="s">
+        <v>344</v>
+      </c>
+      <c r="D41" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>148</v>
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" t="s">
+        <v>324</v>
+      </c>
+      <c r="D42" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>150</v>
+        <v>117</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>325</v>
+      </c>
+      <c r="D43" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>152</v>
+        <v>117</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
+        <v>326</v>
+      </c>
+      <c r="D44" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>154</v>
+        <v>117</v>
+      </c>
+      <c r="B45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" t="s">
+        <v>328</v>
+      </c>
+      <c r="D45" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>156</v>
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>158</v>
+        <v>117</v>
+      </c>
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" t="s">
+        <v>332</v>
+      </c>
+      <c r="D47" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>160</v>
+        <v>117</v>
+      </c>
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s">
+        <v>333</v>
+      </c>
+      <c r="D48" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>162</v>
+        <v>117</v>
+      </c>
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
+        <v>335</v>
+      </c>
+      <c r="D49" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>164</v>
+        <v>117</v>
+      </c>
+      <c r="B50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" t="s">
+        <v>337</v>
+      </c>
+      <c r="D50" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>166</v>
+        <v>117</v>
+      </c>
+      <c r="B51" t="s">
+        <v>338</v>
+      </c>
+      <c r="C51" t="s">
+        <v>339</v>
+      </c>
+      <c r="D51" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>297</v>
+        <v>117</v>
+      </c>
+      <c r="B52" t="s">
+        <v>346</v>
+      </c>
+      <c r="C52" t="s">
+        <v>347</v>
+      </c>
+      <c r="D52" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>248</v>
+      </c>
+      <c r="B56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" t="s">
+        <v>249</v>
+      </c>
+      <c r="D56" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>248</v>
+      </c>
+      <c r="B57" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" t="s">
+        <v>251</v>
+      </c>
+      <c r="D57" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" t="s">
+        <v>253</v>
+      </c>
+      <c r="D58" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="B59" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="C59" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="D59" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>286</v>
-      </c>
-      <c r="B60" t="s">
-        <v>289</v>
-      </c>
-      <c r="C60" t="s">
-        <v>289</v>
-      </c>
-      <c r="D60" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>286</v>
-      </c>
-      <c r="B61" t="s">
-        <v>291</v>
-      </c>
-      <c r="C61" t="s">
-        <v>291</v>
-      </c>
-      <c r="D61" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>286</v>
-      </c>
-      <c r="B62" t="s">
-        <v>293</v>
-      </c>
-      <c r="C62" t="s">
-        <v>293</v>
-      </c>
-      <c r="D62" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3838,13 +3927,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.75" customHeight="1">
@@ -3879,7 +3968,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3892,24 +3981,24 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3928,7 +4017,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3956,32 +4045,32 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -3994,7 +4083,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -4012,7 +4101,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -4023,10 +4112,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -4035,10 +4124,10 @@
     </row>
     <row r="10" spans="1:8" s="14" customFormat="1">
       <c r="A10" s="14" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -4048,7 +4137,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="14" customFormat="1">
@@ -4056,7 +4145,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -4066,17 +4155,17 @@
         <v>37</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
     </row>
     <row r="14" spans="1:8" s="14" customFormat="1">
       <c r="A14" s="14" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="14" customFormat="1">
@@ -4094,7 +4183,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -4111,10 +4200,10 @@
     </row>
     <row r="18" spans="1:4" s="14" customFormat="1">
       <c r="A18" s="14" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -4124,7 +4213,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="14" customFormat="1">
@@ -4132,17 +4221,17 @@
         <v>23</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
     </row>
     <row r="21" spans="1:4" s="14" customFormat="1">
       <c r="A21" s="14" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -4152,7 +4241,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4160,15 +4249,15 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4176,15 +4265,15 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4192,31 +4281,31 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4224,7 +4313,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4232,7 +4321,7 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4263,7 +4352,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -4271,10 +4360,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="21" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4306,7 +4395,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="30" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>11</v>
@@ -4314,26 +4403,26 @@
     </row>
     <row r="2" spans="1:2" ht="211" customHeight="1">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="174" customHeight="1">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="175" customHeight="1">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:2">

--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11600" yWindow="5500" windowWidth="28800" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="5040" yWindow="860" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="222">
+  <cellStyleXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1335,6 +1335,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1536,7 +1538,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="222">
+  <cellStyles count="224">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1647,6 +1649,7 @@
     <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1756,6 +1759,7 @@
     <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Normal 5" xfId="101"/>
@@ -3172,7 +3176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:D52"/>
     </sheetView>
   </sheetViews>
@@ -4016,8 +4020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4262,7 +4266,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>

--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="860" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="5040" yWindow="860" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -117,12 +117,6 @@
     <t>sector_type</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
@@ -162,9 +156,6 @@
     <t>authorization_veo</t>
   </si>
   <si>
-    <t>has_been_authorized_by_veo</t>
-  </si>
-  <si>
     <t>Enter the name of the business.</t>
   </si>
   <si>
@@ -192,9 +183,6 @@
     <t>callback</t>
   </si>
   <si>
-    <t>true_false_unsure</t>
-  </si>
-  <si>
     <t>Unsure</t>
   </si>
   <si>
@@ -490,12 +478,6 @@
   </si>
   <si>
     <t>Andika mtandao wa simu wa namba ya pili ya biashara</t>
-  </si>
-  <si>
-    <t>Sio kweli</t>
-  </si>
-  <si>
-    <t>Kweli</t>
   </si>
   <si>
     <t>Sina uhakika</t>
@@ -775,9 +757,6 @@
   </si>
   <si>
     <t>select_one_unique</t>
-  </si>
-  <si>
-    <t>has_been_verified_by_coordinator</t>
   </si>
   <si>
     <t>subvillage_list</t>
@@ -1105,6 +1084,27 @@
   </si>
   <si>
     <t>Mifugo nyingine</t>
+  </si>
+  <si>
+    <t>has_been_verified_by_coordinator_as</t>
+  </si>
+  <si>
+    <t>has_been_authorized_by_veo_as</t>
+  </si>
+  <si>
+    <t>valid_invalid_unsure</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Sio halali</t>
+  </si>
+  <si>
+    <t>Halali</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1232,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="224">
+  <cellStyleXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1335,6 +1335,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1538,7 +1540,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="224">
+  <cellStyles count="226">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1650,6 +1652,7 @@
     <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1760,6 +1763,7 @@
     <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Normal 5" xfId="101"/>
@@ -2169,7 +2173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
@@ -2217,7 +2221,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2238,36 +2242,36 @@
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="24" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="b">
@@ -2277,10 +2281,10 @@
     <row r="3" spans="1:18">
       <c r="A3" s="24"/>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H3" s="6"/>
       <c r="M3" s="2"/>
@@ -2288,14 +2292,14 @@
     <row r="4" spans="1:18" ht="120">
       <c r="A4" s="24"/>
       <c r="D4" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H4" s="6"/>
       <c r="M4" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2303,23 +2307,23 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2327,22 +2331,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2350,22 +2354,22 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2373,22 +2377,22 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2399,16 +2403,16 @@
         <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="60">
@@ -2419,77 +2423,77 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="O10" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="R10" s="14" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="29" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="14" customFormat="1" ht="60">
       <c r="A12" s="29" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="O12" s="23"/>
       <c r="P12" s="23"/>
@@ -2498,10 +2502,10 @@
     <row r="13" spans="1:18" s="9" customFormat="1">
       <c r="A13" s="29"/>
       <c r="B13" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
@@ -2510,43 +2514,43 @@
     </row>
     <row r="14" spans="1:18" s="9" customFormat="1" ht="216">
       <c r="A14" s="29" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="N14" s="25" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="O14" s="25" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="P14" s="25" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="9" customFormat="1">
       <c r="A15" s="29"/>
       <c r="B15" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H15" s="7"/>
       <c r="N15" s="25"/>
@@ -2560,16 +2564,16 @@
         <v>23</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
@@ -2578,7 +2582,7 @@
     <row r="17" spans="1:18" s="9" customFormat="1">
       <c r="A17" s="29"/>
       <c r="B17" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
@@ -2588,7 +2592,7 @@
     <row r="18" spans="1:18" s="9" customFormat="1">
       <c r="A18" s="29"/>
       <c r="B18" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
@@ -2600,19 +2604,19 @@
         <v>12</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="O19" s="23"/>
       <c r="P19" s="23"/>
@@ -2626,135 +2630,135 @@
         <v>23</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="H20" s="12" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="29"/>
       <c r="B21" s="14" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:18" ht="101" customHeight="1">
       <c r="A22" s="29" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="Q22" s="26" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="84">
       <c r="A23" s="29"/>
       <c r="D23" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="29"/>
       <c r="B24" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:18" ht="24">
       <c r="A25" s="29" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="48">
       <c r="A26" s="29" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="N26" s="23" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="Q26" s="26" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="29"/>
       <c r="B27" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
@@ -2763,7 +2767,7 @@
     </row>
     <row r="28" spans="1:18" s="10" customFormat="1" ht="60">
       <c r="A28" s="29" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>23</v>
@@ -2772,54 +2776,54 @@
         <v>27</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N28" s="27" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="P28" s="27" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="Q28" s="27" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="29" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="N29" s="23" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="29"/>
       <c r="B30" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H30" s="6"/>
       <c r="N30" s="23"/>
@@ -2827,7 +2831,7 @@
     <row r="31" spans="1:18">
       <c r="A31" s="29"/>
       <c r="B31" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H31" s="6"/>
       <c r="N31" s="23"/>
@@ -2838,123 +2842,123 @@
         <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N32" s="23" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="29"/>
       <c r="B33" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H33" s="6"/>
       <c r="N33" s="23"/>
     </row>
     <row r="34" spans="1:18" s="10" customFormat="1" ht="96">
       <c r="A34" s="29" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N34" s="27" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="P34" s="27" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="Q34" s="27" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="48">
       <c r="A35" s="29" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="29"/>
       <c r="B36" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="29"/>
       <c r="B37" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="29"/>
       <c r="B38" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="29"/>
       <c r="D39" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="29"/>
       <c r="B40" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2993,150 +2997,150 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>89</v>
-      </c>
       <c r="K1" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>94</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>94</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>94</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>94</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>28</v>
@@ -3149,16 +3153,16 @@
     </row>
     <row r="8" spans="1:11" ht="85" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3176,8 +3180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:D52"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3201,693 +3205,693 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>344</v>
       </c>
       <c r="B11" s="17">
         <v>0</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>30</v>
+        <v>345</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>155</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>344</v>
       </c>
       <c r="B12" s="17">
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>31</v>
+        <v>346</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>156</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>344</v>
       </c>
       <c r="B13" s="1">
         <v>-1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D28" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C29" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D29" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D30" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D31" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
         <v>117</v>
       </c>
-      <c r="B32" t="s">
-        <v>121</v>
-      </c>
       <c r="C32" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D32" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C33" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D33" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D34" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D35" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C36" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D36" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D37" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D38" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C39" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D39" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C40" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D40" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C41" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D41" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D44" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D45" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D46" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D48" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D49" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C50" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B51" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C51" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D51" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B52" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C52" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D52" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B56" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C56" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D56" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B57" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C57" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D57" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B58" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C58" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D58" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" t="s">
         <v>248</v>
       </c>
-      <c r="B59" t="s">
-        <v>255</v>
-      </c>
       <c r="C59" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D59" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3931,13 +3935,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.75" customHeight="1">
@@ -3972,7 +3976,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3980,29 +3984,29 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4020,8 +4024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4049,32 +4053,32 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C3"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -4087,7 +4091,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -4097,7 +4101,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -4105,7 +4109,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -4116,10 +4120,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -4128,10 +4132,10 @@
     </row>
     <row r="10" spans="1:8" s="14" customFormat="1">
       <c r="A10" s="14" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -4141,7 +4145,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="14" customFormat="1">
@@ -4149,27 +4153,27 @@
         <v>23</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
     </row>
     <row r="13" spans="1:8" s="14" customFormat="1">
       <c r="A13" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
     </row>
     <row r="14" spans="1:8" s="14" customFormat="1">
       <c r="A14" s="14" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="14" customFormat="1">
@@ -4177,17 +4181,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
     </row>
     <row r="16" spans="1:8" s="14" customFormat="1">
       <c r="A16" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -4204,10 +4208,10 @@
     </row>
     <row r="18" spans="1:4" s="14" customFormat="1">
       <c r="A18" s="14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -4217,7 +4221,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="14" customFormat="1">
@@ -4225,17 +4229,17 @@
         <v>23</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
     </row>
     <row r="21" spans="1:4" s="14" customFormat="1">
       <c r="A21" s="14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -4245,7 +4249,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4253,15 +4257,15 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>247</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4269,15 +4273,15 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4285,31 +4289,31 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4317,15 +4321,15 @@
         <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -4356,7 +4360,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -4364,10 +4368,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="21" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4399,7 +4403,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="30" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>11</v>
@@ -4407,26 +4411,26 @@
     </row>
     <row r="2" spans="1:2" ht="211" customHeight="1">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="174" customHeight="1">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="175" customHeight="1">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:2">

--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="860" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="5040" yWindow="860" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="340">
   <si>
     <t>comments</t>
   </si>
@@ -757,33 +757,6 @@
   </si>
   <si>
     <t>select_one_unique</t>
-  </si>
-  <si>
-    <t>subvillage_list</t>
-  </si>
-  <si>
-    <t>Subvillage12</t>
-  </si>
-  <si>
-    <t>sw:Subvillage12</t>
-  </si>
-  <si>
-    <t>Subvillage11</t>
-  </si>
-  <si>
-    <t>sw:Subvillage11</t>
-  </si>
-  <si>
-    <t>Subvillage31</t>
-  </si>
-  <si>
-    <t>sw:Subvillage31</t>
-  </si>
-  <si>
-    <t>Subvillage41</t>
-  </si>
-  <si>
-    <t>sw:Subvillage41</t>
   </si>
   <si>
     <t>(data('sector_type') === 'trading_sales' || data('sector_type') === 'merchant_retail' || data('sector_type') === 'agricultural_processing')</t>
@@ -2173,7 +2146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
@@ -2245,10 +2218,10 @@
         <v>183</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>186</v>
@@ -2292,14 +2265,14 @@
     <row r="4" spans="1:18" ht="120">
       <c r="A4" s="24"/>
       <c r="D4" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>237</v>
       </c>
       <c r="H4" s="6"/>
       <c r="M4" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2310,16 +2283,16 @@
         <v>240</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
@@ -2423,7 +2396,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>45</v>
@@ -2435,13 +2408,13 @@
         <v>203</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="R10" s="14" t="s">
         <v>187</v>
@@ -2490,7 +2463,7 @@
         <v>179</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="N12" s="23" t="s">
         <v>203</v>
@@ -2505,7 +2478,7 @@
         <v>98</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
@@ -2532,10 +2505,10 @@
         <v>180</v>
       </c>
       <c r="N14" s="25" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="O14" s="25" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="P14" s="25" t="s">
         <v>218</v>
@@ -2607,13 +2580,13 @@
         <v>35</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>203</v>
@@ -2666,13 +2639,13 @@
         <v>142</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="26" t="s">
         <v>212</v>
@@ -2711,7 +2684,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>33</v>
@@ -2746,10 +2719,10 @@
         <v>203</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="Q26" s="26" t="s">
         <v>213</v>
@@ -2785,13 +2758,13 @@
         <v>203</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="P28" s="27" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="Q28" s="27" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="R28" s="10" t="s">
         <v>187</v>
@@ -2863,7 +2836,7 @@
         <v>230</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="H33" s="6"/>
       <c r="N33" s="23"/>
@@ -2885,16 +2858,16 @@
         <v>149</v>
       </c>
       <c r="N34" s="27" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="P34" s="27" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="Q34" s="27" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="R34" s="10" t="s">
         <v>187</v>
@@ -2920,7 +2893,7 @@
         <v>150</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3032,7 +3005,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>86</v>
@@ -3056,7 +3029,7 @@
         <v>90</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3073,10 +3046,10 @@
         <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>90</v>
@@ -3162,7 +3135,7 @@
         <v>137</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3180,8 +3153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D13"/>
+    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3322,35 +3295,35 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B11" s="17">
         <v>0</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B12" s="17">
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B13" s="1">
         <v>-1</v>
@@ -3364,7 +3337,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>57</v>
@@ -3378,7 +3351,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>58</v>
@@ -3392,16 +3365,16 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3496,10 +3469,10 @@
         <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D28" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3507,13 +3480,13 @@
         <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C29" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D29" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3524,10 +3497,10 @@
         <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D30" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3538,10 +3511,10 @@
         <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D31" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3552,10 +3525,10 @@
         <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D32" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3563,13 +3536,13 @@
         <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C33" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D33" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3580,10 +3553,10 @@
         <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D34" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3594,10 +3567,10 @@
         <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D35" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3605,13 +3578,13 @@
         <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C36" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D36" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3622,10 +3595,10 @@
         <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D37" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3636,10 +3609,10 @@
         <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D38" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3647,13 +3620,13 @@
         <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C39" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D39" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3661,13 +3634,13 @@
         <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C40" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D40" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3678,10 +3651,10 @@
         <v>215</v>
       </c>
       <c r="C41" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D41" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3692,7 +3665,7 @@
         <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D42" t="s">
         <v>123</v>
@@ -3706,7 +3679,7 @@
         <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D43" t="s">
         <v>125</v>
@@ -3720,10 +3693,10 @@
         <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D44" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3734,10 +3707,10 @@
         <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D45" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3748,10 +3721,10 @@
         <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D46" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3762,7 +3735,7 @@
         <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D47" t="s">
         <v>130</v>
@@ -3776,10 +3749,10 @@
         <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D48" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3790,10 +3763,10 @@
         <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D49" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3804,7 +3777,7 @@
         <v>188</v>
       </c>
       <c r="C50" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D50" t="s">
         <v>133</v>
@@ -3815,13 +3788,13 @@
         <v>113</v>
       </c>
       <c r="B51" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C51" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D51" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3829,70 +3802,38 @@
         <v>113</v>
       </c>
       <c r="B52" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C52" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D52" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>241</v>
-      </c>
-      <c r="B56" t="s">
-        <v>242</v>
-      </c>
-      <c r="C56" t="s">
-        <v>242</v>
-      </c>
-      <c r="D56" t="s">
-        <v>243</v>
-      </c>
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>241</v>
-      </c>
-      <c r="B57" t="s">
-        <v>244</v>
-      </c>
-      <c r="C57" t="s">
-        <v>244</v>
-      </c>
-      <c r="D57" t="s">
-        <v>245</v>
-      </c>
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>241</v>
-      </c>
-      <c r="B58" t="s">
-        <v>246</v>
-      </c>
-      <c r="C58" t="s">
-        <v>246</v>
-      </c>
-      <c r="D58" t="s">
-        <v>247</v>
-      </c>
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>241</v>
-      </c>
-      <c r="B59" t="s">
-        <v>248</v>
-      </c>
-      <c r="C59" t="s">
-        <v>248</v>
-      </c>
-      <c r="D59" t="s">
-        <v>249</v>
-      </c>
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4024,8 +3965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4088,7 +4029,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -4265,7 +4206,7 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4281,7 +4222,7 @@
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4321,7 +4262,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4329,7 +4270,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -4414,7 +4355,7 @@
         <v>233</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="174" customHeight="1">
@@ -4427,10 +4368,10 @@
     </row>
     <row r="4" spans="1:2" ht="175" customHeight="1">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:2">

--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="860" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="1920" yWindow="2780" windowWidth="25600" windowHeight="16080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="341">
   <si>
     <t>comments</t>
   </si>
@@ -558,24 +558,6 @@
     <t>sw:Swahili</t>
   </si>
   <si>
-    <t>sw:Do you consent to participate?</t>
-  </si>
-  <si>
-    <t>sw:Choose the district.</t>
-  </si>
-  <si>
-    <t>sw:Choose the subsector of the business</t>
-  </si>
-  <si>
-    <t>sw:Do you specialize in a specifc crop?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sw:What is the business owners name? </t>
-  </si>
-  <si>
-    <t>sw:Enter the network for the phone number.</t>
-  </si>
-  <si>
     <t>constraint</t>
   </si>
   <si>
@@ -624,9 +606,6 @@
     <t>Choose the ward.</t>
   </si>
   <si>
-    <t>sw:Choose the ward.</t>
-  </si>
-  <si>
     <t>ward=?</t>
   </si>
   <si>
@@ -688,12 +667,6 @@
   </si>
   <si>
     <t>(selected('crop_type', 'other'))</t>
-  </si>
-  <si>
-    <t>sw:Yes</t>
-  </si>
-  <si>
-    <t>sw:No</t>
   </si>
   <si>
     <t>begin screen</t>
@@ -1078,6 +1051,36 @@
   </si>
   <si>
     <t>Halali</t>
+  </si>
+  <si>
+    <t>Unakubali kushiriki?</t>
+  </si>
+  <si>
+    <t>Chagua sehemu ya sekta ya biashara</t>
+  </si>
+  <si>
+    <t>Jina la mmiliki wa biashara?</t>
+  </si>
+  <si>
+    <t>Andika kampuni ya mtandao wa namba ya simu</t>
+  </si>
+  <si>
+    <t>Chagua Kata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw:Thank you for your time.  </t>
+  </si>
+  <si>
+    <t>Ndiyo</t>
+  </si>
+  <si>
+    <t>Hapana</t>
+  </si>
+  <si>
+    <t>Chagua Wilaya</t>
+  </si>
+  <si>
+    <t>sw:Do you specialize in a specifc crop or livestock?</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1208,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="226">
+  <cellStyleXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1432,8 +1435,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1512,8 +1531,16 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="226">
+  <cellStyles count="242">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1626,6 +1653,14 @@
     <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1737,6 +1772,14 @@
     <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Normal 5" xfId="101"/>
@@ -2146,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2215,16 +2258,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2243,8 +2286,8 @@
       <c r="G2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>177</v>
+      <c r="H2" s="36" t="s">
+        <v>331</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="b">
@@ -2257,7 +2300,7 @@
         <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H3" s="6"/>
       <c r="M3" s="2"/>
@@ -2265,14 +2308,14 @@
     <row r="4" spans="1:18" ht="120">
       <c r="A4" s="24"/>
       <c r="D4" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H4" s="6"/>
       <c r="M4" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2280,23 +2323,23 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2304,7 +2347,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>79</v>
@@ -2315,11 +2358,11 @@
       <c r="G6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>178</v>
+      <c r="H6" s="38" t="s">
+        <v>339</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2327,22 +2370,22 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>199</v>
+        <v>192</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>335</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2350,7 +2393,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>80</v>
@@ -2365,7 +2408,7 @@
         <v>139</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2385,7 +2428,7 @@
         <v>140</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="60">
@@ -2396,7 +2439,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>45</v>
@@ -2405,19 +2448,19 @@
         <v>148</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>266</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2425,7 +2468,7 @@
         <v>162</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>40</v>
@@ -2440,7 +2483,7 @@
         <v>141</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="14" customFormat="1" ht="60">
@@ -2448,7 +2491,7 @@
         <v>162</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>134</v>
@@ -2459,14 +2502,14 @@
       <c r="G12" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="22" t="s">
-        <v>179</v>
+      <c r="H12" s="37" t="s">
+        <v>332</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="O12" s="23"/>
       <c r="P12" s="23"/>
@@ -2478,7 +2521,7 @@
         <v>98</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
@@ -2490,7 +2533,7 @@
         <v>162</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>113</v>
@@ -2502,19 +2545,19 @@
         <v>135</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="N14" s="25" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="O14" s="25" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="P14" s="25" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="9" customFormat="1">
@@ -2523,7 +2566,7 @@
         <v>98</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H15" s="7"/>
       <c r="N15" s="25"/>
@@ -2537,16 +2580,16 @@
         <v>23</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
@@ -2580,16 +2623,16 @@
         <v>35</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="O19" s="23"/>
       <c r="P19" s="23"/>
@@ -2608,17 +2651,17 @@
       <c r="G20" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>181</v>
+      <c r="H20" s="38" t="s">
+        <v>333</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="29"/>
       <c r="B21" s="14" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H21" s="12"/>
     </row>
@@ -2639,40 +2682,40 @@
         <v>142</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="26" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="84">
       <c r="A23" s="29"/>
       <c r="D23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="H23" s="22" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="29"/>
       <c r="B24" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H24" s="22"/>
     </row>
@@ -2684,7 +2727,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>33</v>
@@ -2696,7 +2739,7 @@
         <v>143</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="48">
@@ -2710,28 +2753,28 @@
         <v>36</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="N26" s="23" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="Q26" s="26" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="29"/>
       <c r="B27" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
@@ -2740,7 +2783,7 @@
     </row>
     <row r="28" spans="1:18" s="10" customFormat="1" ht="60">
       <c r="A28" s="29" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>23</v>
@@ -2755,19 +2798,19 @@
         <v>148</v>
       </c>
       <c r="N28" s="27" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="P28" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q28" s="27" t="s">
-        <v>275</v>
+        <v>267</v>
+      </c>
+      <c r="Q28" s="39" t="s">
+        <v>266</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2775,7 +2818,7 @@
         <v>167</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>59</v>
@@ -2786,17 +2829,17 @@
       <c r="G29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>182</v>
+      <c r="H29" s="36" t="s">
+        <v>334</v>
       </c>
       <c r="N29" s="23" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="29"/>
       <c r="B30" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H30" s="6"/>
       <c r="N30" s="23"/>
@@ -2804,7 +2847,7 @@
     <row r="31" spans="1:18">
       <c r="A31" s="29"/>
       <c r="B31" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H31" s="6"/>
       <c r="N31" s="23"/>
@@ -2818,25 +2861,25 @@
         <v>154</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="N32" s="23" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="29"/>
       <c r="B33" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H33" s="6"/>
       <c r="N33" s="23"/>
@@ -2858,19 +2901,19 @@
         <v>149</v>
       </c>
       <c r="N34" s="27" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="P34" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q34" s="27" t="s">
-        <v>275</v>
+        <v>265</v>
+      </c>
+      <c r="Q34" s="39" t="s">
+        <v>266</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="48">
@@ -2878,7 +2921,7 @@
         <v>167</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>59</v>
@@ -2893,7 +2936,7 @@
         <v>150</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2906,26 +2949,29 @@
     <row r="37" spans="1:18">
       <c r="A37" s="29"/>
       <c r="B37" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="29"/>
       <c r="B38" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="29"/>
       <c r="D39" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3005,7 +3051,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>86</v>
@@ -3029,7 +3075,7 @@
         <v>90</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3046,10 +3092,10 @@
         <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>90</v>
@@ -3063,7 +3109,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>86</v>
@@ -3104,10 +3150,10 @@
         <v>87</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>90</v>
@@ -3135,7 +3181,7 @@
         <v>137</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3153,8 +3199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD59"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3186,7 +3232,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>101</v>
@@ -3200,7 +3246,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>53</v>
@@ -3214,7 +3260,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>54</v>
@@ -3228,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>55</v>
@@ -3242,7 +3288,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>106</v>
@@ -3256,7 +3302,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>108</v>
@@ -3270,7 +3316,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>110</v>
@@ -3284,7 +3330,7 @@
         <v>40</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>56</v>
@@ -3295,35 +3341,35 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B11" s="17">
         <v>0</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B12" s="17">
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B13" s="1">
         <v>-1</v>
@@ -3337,7 +3383,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>57</v>
@@ -3351,7 +3397,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>58</v>
@@ -3365,16 +3411,16 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3387,8 +3433,8 @@
       <c r="C19" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>221</v>
+      <c r="D19" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3401,8 +3447,8 @@
       <c r="C20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>222</v>
+      <c r="D20" s="1" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3469,10 +3515,10 @@
         <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3480,13 +3526,13 @@
         <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C29" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D29" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3497,10 +3543,10 @@
         <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D30" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3511,10 +3557,10 @@
         <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D31" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3525,10 +3571,10 @@
         <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D32" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3536,13 +3582,13 @@
         <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C33" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D33" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3553,10 +3599,10 @@
         <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D34" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3567,10 +3613,10 @@
         <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D35" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3578,13 +3624,13 @@
         <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C36" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D36" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3595,10 +3641,10 @@
         <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D37" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3609,10 +3655,10 @@
         <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D38" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3620,13 +3666,13 @@
         <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C39" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D39" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3634,13 +3680,13 @@
         <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C40" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D40" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3648,13 +3694,13 @@
         <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C41" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D41" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3665,7 +3711,7 @@
         <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D42" t="s">
         <v>123</v>
@@ -3679,7 +3725,7 @@
         <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D43" t="s">
         <v>125</v>
@@ -3693,10 +3739,10 @@
         <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D44" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3707,10 +3753,10 @@
         <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D45" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3721,10 +3767,10 @@
         <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D46" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3735,7 +3781,7 @@
         <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D47" t="s">
         <v>130</v>
@@ -3749,10 +3795,10 @@
         <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D48" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3763,10 +3809,10 @@
         <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D49" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3774,10 +3820,10 @@
         <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C50" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D50" t="s">
         <v>133</v>
@@ -3788,13 +3834,13 @@
         <v>113</v>
       </c>
       <c r="B51" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C51" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D51" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3802,13 +3848,13 @@
         <v>113</v>
       </c>
       <c r="B52" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C52" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D52" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3965,7 +4011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4001,7 +4047,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -4010,7 +4056,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -4019,7 +4065,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -4050,7 +4096,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -4061,7 +4107,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
         <v>96</v>
@@ -4073,7 +4119,7 @@
     </row>
     <row r="10" spans="1:8" s="14" customFormat="1">
       <c r="A10" s="14" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>99</v>
@@ -4086,7 +4132,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="14" customFormat="1">
@@ -4111,10 +4157,10 @@
     </row>
     <row r="14" spans="1:8" s="14" customFormat="1">
       <c r="A14" s="14" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="14" customFormat="1">
@@ -4149,7 +4195,7 @@
     </row>
     <row r="18" spans="1:4" s="14" customFormat="1">
       <c r="A18" s="14" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>68</v>
@@ -4162,7 +4208,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="14" customFormat="1">
@@ -4177,7 +4223,7 @@
     </row>
     <row r="21" spans="1:4" s="14" customFormat="1">
       <c r="A21" s="14" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>69</v>
@@ -4206,7 +4252,7 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4222,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4235,26 +4281,26 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4262,7 +4308,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4270,7 +4316,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -4309,7 +4355,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="21" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -4344,7 +4390,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="30" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>11</v>
@@ -4352,26 +4398,26 @@
     </row>
     <row r="2" spans="1:2" ht="211" customHeight="1">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="174" customHeight="1">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="175" customHeight="1">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:2">

--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="2780" windowWidth="25600" windowHeight="16080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="346">
   <si>
     <t>comments</t>
   </si>
@@ -1081,6 +1081,21 @@
   </si>
   <si>
     <t>sw:Do you specialize in a specifc crop or livestock?</t>
+  </si>
+  <si>
+    <t>Enter the subvillage</t>
+  </si>
+  <si>
+    <t>sw:Enter the subvilllage</t>
+  </si>
+  <si>
+    <t>not_applicable</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>sw:Not Applicable</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1223,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="242">
+  <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1311,6 +1326,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1540,7 +1557,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="242">
+  <cellStyles count="244">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1661,6 +1678,7 @@
     <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1780,6 +1798,7 @@
     <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Normal 5" xfId="101"/>
@@ -2187,10 +2206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2415,23 +2434,20 @@
       <c r="A9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="60">
+        <v>341</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="29" t="s">
         <v>12</v>
       </c>
@@ -2439,168 +2455,178 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>148</v>
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="O10" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q10" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+    </row>
+    <row r="11" spans="1:18" ht="60">
       <c r="A11" s="29" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>141</v>
+        <v>256</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>148</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="14" customFormat="1" ht="60">
+      <c r="O11" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q11" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="29" t="s">
         <v>162</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="14" customFormat="1" ht="60">
+      <c r="A13" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F13" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H13" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L13" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N13" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-    </row>
-    <row r="13" spans="1:18" s="9" customFormat="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="9" t="s">
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+    </row>
+    <row r="14" spans="1:18" s="9" customFormat="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-    </row>
-    <row r="14" spans="1:18" s="9" customFormat="1" ht="216">
-      <c r="A14" s="29" t="s">
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+    </row>
+    <row r="15" spans="1:18" s="9" customFormat="1" ht="216">
+      <c r="A15" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="N14" s="25" t="s">
+      <c r="N15" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="O15" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="P14" s="25" t="s">
+      <c r="P15" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="Q14" s="28" t="s">
+      <c r="Q15" s="28" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="9" customFormat="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="9" t="s">
+    <row r="16" spans="1:18" s="9" customFormat="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="28"/>
-    </row>
-    <row r="16" spans="1:18" s="9" customFormat="1" ht="84">
-      <c r="A16" s="29"/>
-      <c r="D16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>223</v>
-      </c>
+      <c r="H16" s="7"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-    </row>
-    <row r="17" spans="1:18" s="9" customFormat="1">
+      <c r="Q16" s="28"/>
+    </row>
+    <row r="17" spans="1:18" s="9" customFormat="1" ht="84">
       <c r="A17" s="29"/>
-      <c r="B17" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="N17" s="25"/>
+      <c r="D17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>223</v>
+      </c>
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
       <c r="Q17" s="25"/>
@@ -2615,368 +2641,378 @@
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
     </row>
-    <row r="19" spans="1:18" s="14" customFormat="1" ht="13">
-      <c r="A19" s="33" t="s">
+    <row r="19" spans="1:18" s="9" customFormat="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+    </row>
+    <row r="20" spans="1:18" s="14" customFormat="1" ht="13">
+      <c r="A20" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F20" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G20" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H20" s="35" t="s">
         <v>317</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>333</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>196</v>
       </c>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="29"/>
-      <c r="B21" s="14" t="s">
+      <c r="A21" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="29"/>
+      <c r="B22" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:18" ht="101" customHeight="1">
-      <c r="A22" s="29" t="s">
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:18" ht="101" customHeight="1">
+      <c r="A23" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="Q22" s="26" t="s">
+      <c r="Q23" s="26" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="84">
-      <c r="A23" s="29"/>
-      <c r="D23" s="1" t="s">
+    <row r="24" spans="1:18" ht="84">
+      <c r="A24" s="29"/>
+      <c r="D24" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H24" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="29"/>
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:18">
+      <c r="A25" s="29"/>
+      <c r="B25" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:18" ht="24">
-      <c r="A25" s="29" t="s">
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:18" ht="24">
+      <c r="A26" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H26" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="48">
-      <c r="A26" s="29" t="s">
+    <row r="27" spans="1:18" ht="48">
+      <c r="A27" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G27" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H27" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="N26" s="23" t="s">
+      <c r="N27" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="Q26" s="26" t="s">
+      <c r="Q27" s="26" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="29"/>
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="1:18">
+      <c r="A28" s="29"/>
+      <c r="B28" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
-      <c r="N27" s="23"/>
-      <c r="Q27" s="26"/>
-    </row>
-    <row r="28" spans="1:18" s="10" customFormat="1" ht="60">
-      <c r="A28" s="29" t="s">
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="N28" s="23"/>
+      <c r="Q28" s="26"/>
+    </row>
+    <row r="29" spans="1:18" s="10" customFormat="1" ht="60">
+      <c r="A29" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H29" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="N28" s="27" t="s">
+      <c r="N29" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="O28" s="27" t="s">
+      <c r="O29" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="P28" s="27" t="s">
+      <c r="P29" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="Q28" s="39" t="s">
+      <c r="Q29" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="R28" s="10" t="s">
+      <c r="R29" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="29" t="s">
+    <row r="30" spans="1:18">
+      <c r="A30" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="H30" s="36" t="s">
         <v>334</v>
       </c>
-      <c r="N29" s="23" t="s">
+      <c r="N30" s="23" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="29"/>
-      <c r="B30" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="N30" s="23"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="29"/>
       <c r="B31" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H31" s="6"/>
       <c r="N31" s="23"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="29"/>
-      <c r="D32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="N32" s="23" t="s">
-        <v>196</v>
-      </c>
+      <c r="B32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="N32" s="23"/>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="29"/>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="N33" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="29"/>
+      <c r="B34" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="N33" s="23"/>
-    </row>
-    <row r="34" spans="1:18" s="10" customFormat="1" ht="96">
-      <c r="A34" s="29" t="s">
+      <c r="H34" s="6"/>
+      <c r="N34" s="23"/>
+    </row>
+    <row r="35" spans="1:18" s="10" customFormat="1" ht="96">
+      <c r="A35" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D35" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G35" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H35" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="N34" s="27" t="s">
+      <c r="N35" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="O34" s="27" t="s">
+      <c r="O35" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="P34" s="27" t="s">
+      <c r="P35" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="Q34" s="39" t="s">
+      <c r="Q35" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="R34" s="10" t="s">
+      <c r="R35" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="48">
-      <c r="A35" s="29" t="s">
+    <row r="36" spans="1:18" ht="48">
+      <c r="A36" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H36" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="29"/>
-      <c r="B36" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="29"/>
       <c r="B37" s="1" t="s">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="29"/>
       <c r="B38" s="1" t="s">
-        <v>197</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="29"/>
-      <c r="D39" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>336</v>
+      <c r="B39" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="29"/>
-      <c r="B40" s="1" t="s">
+      <c r="D40" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="29"/>
+      <c r="B41" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3199,8 +3235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A26" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3855,6 +3891,20 @@
       </c>
       <c r="D52" t="s">
         <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" t="s">
+        <v>343</v>
+      </c>
+      <c r="C53" t="s">
+        <v>344</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3897,7 +3947,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" tabRatio="500"/>
+    <workbookView xWindow="8640" yWindow="1260" windowWidth="40300" windowHeight="24720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="345">
   <si>
     <t>comments</t>
   </si>
@@ -432,9 +432,6 @@
     <t>subsector_type_list</t>
   </si>
   <si>
-    <t>Do you specialize in a specifc crop?</t>
-  </si>
-  <si>
     <t>end if</t>
   </si>
   <si>
@@ -552,12 +549,6 @@
     <t>Swahili</t>
   </si>
   <si>
-    <t>sw:English</t>
-  </si>
-  <si>
-    <t>sw:Swahili</t>
-  </si>
-  <si>
     <t>constraint</t>
   </si>
   <si>
@@ -630,15 +621,9 @@
     <t xml:space="preserve">Thank you for your time.  </t>
   </si>
   <si>
-    <t>sw:What is the size of the firm (number of paid employees, including the owner)?</t>
-  </si>
-  <si>
     <t>Prefer not to answer.</t>
   </si>
   <si>
-    <t>sw:Prefer not to answer.</t>
-  </si>
-  <si>
     <t>decline_business_owner_age</t>
   </si>
   <si>
@@ -657,9 +642,6 @@
     <t>What is the other crop?</t>
   </si>
   <si>
-    <t>sw:What is the other crop?</t>
-  </si>
-  <si>
     <t>Only 3 or fewer crops can be selected</t>
   </si>
   <si>
@@ -685,9 +667,6 @@
   </si>
   <si>
     <t>Is there a secondary phone number for the business?</t>
-  </si>
-  <si>
-    <t>sw:Is there a secondary phone number for the business?</t>
   </si>
   <si>
     <t xml:space="preserve">if </t>
@@ -771,9 +750,6 @@
     <t>Prefer not to answer</t>
   </si>
   <si>
-    <t>sw:Prefer not to answer</t>
-  </si>
-  <si>
     <t>choice_item.sector_value === data('sector_type')</t>
   </si>
   <si>
@@ -797,9 +773,6 @@
   </si>
   <si>
     <t>Choose the region.</t>
-  </si>
-  <si>
-    <t>sw:Choose the region.</t>
   </si>
   <si>
     <t>region=?</t>
@@ -1011,9 +984,6 @@
     <t>What year did this firm begin?</t>
   </si>
   <si>
-    <t>sw:What year did this firm begin</t>
-  </si>
-  <si>
     <t>year_business_started</t>
   </si>
   <si>
@@ -1056,9 +1026,6 @@
     <t>Unakubali kushiriki?</t>
   </si>
   <si>
-    <t>Chagua sehemu ya sekta ya biashara</t>
-  </si>
-  <si>
     <t>Jina la mmiliki wa biashara?</t>
   </si>
   <si>
@@ -1068,9 +1035,6 @@
     <t>Chagua Kata</t>
   </si>
   <si>
-    <t xml:space="preserve">sw:Thank you for your time.  </t>
-  </si>
-  <si>
     <t>Ndiyo</t>
   </si>
   <si>
@@ -1080,22 +1044,55 @@
     <t>Chagua Wilaya</t>
   </si>
   <si>
-    <t>sw:Do you specialize in a specifc crop or livestock?</t>
-  </si>
-  <si>
     <t>Enter the subvillage</t>
   </si>
   <si>
-    <t>sw:Enter the subvilllage</t>
-  </si>
-  <si>
     <t>not_applicable</t>
   </si>
   <si>
     <t>Not Applicable</t>
   </si>
   <si>
-    <t>sw:Not Applicable</t>
+    <t>Chagua Mkoa</t>
+  </si>
+  <si>
+    <t>Andika jina la kitongoji</t>
+  </si>
+  <si>
+    <t>Chagua sekta ndogo ya biashara</t>
+  </si>
+  <si>
+    <t>The respondent may select from 1 to 3 crop/livestock products. If there are none, select "Not applicable"</t>
+  </si>
+  <si>
+    <t>Mshiriki anaweza kuchagua kati ya mazao au mifugo 1 mpaka mazao au mifugo 3. Kama hakuna, chagua "Hakuna"</t>
+  </si>
+  <si>
+    <t>Andika mazao mingine</t>
+  </si>
+  <si>
+    <t>Biashara hii ilianza mwaka gani?</t>
+  </si>
+  <si>
+    <t>Hakutaki kujibu</t>
+  </si>
+  <si>
+    <t>Biashara hii ina ukubwa gani (idadi ya waajiriwa, pasipo kujumuisha mmiliki wa biashara)?</t>
+  </si>
+  <si>
+    <t>Mshiriki ana namba ya pili ya simu ya biashara?</t>
+  </si>
+  <si>
+    <t>Asante sana</t>
+  </si>
+  <si>
+    <t>Hakuna</t>
+  </si>
+  <si>
+    <t>Kiingereza</t>
+  </si>
+  <si>
+    <t>Kiswahili</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1169,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1223,7 +1219,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="244">
+  <cellStyleXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1468,8 +1464,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1547,7 +1557,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
@@ -1556,8 +1565,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="244">
+  <cellStyles count="258">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1679,6 +1690,13 @@
     <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1799,6 +1817,13 @@
     <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Normal 5" xfId="101"/>
@@ -2208,8 +2233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="E23" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2256,7 +2281,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2277,36 +2302,36 @@
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>331</v>
+        <v>159</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>321</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="b">
@@ -2319,7 +2344,7 @@
         <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H3" s="6"/>
       <c r="M3" s="2"/>
@@ -2327,14 +2352,14 @@
     <row r="4" spans="1:18" ht="120">
       <c r="A4" s="24"/>
       <c r="D4" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="H4" s="6"/>
       <c r="M4" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2342,23 +2367,23 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>331</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2366,7 +2391,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>79</v>
@@ -2377,11 +2402,11 @@
       <c r="G6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="38" t="s">
-        <v>339</v>
+      <c r="H6" s="37" t="s">
+        <v>327</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2389,22 +2414,22 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>335</v>
+        <v>189</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>324</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2412,7 +2437,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>80</v>
@@ -2424,10 +2449,10 @@
         <v>46</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2441,10 +2466,10 @@
         <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>342</v>
+        <v>328</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2461,10 +2486,10 @@
         <v>43</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="60">
@@ -2475,36 +2500,36 @@
         <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="Q11" s="26" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>40</v>
@@ -2516,18 +2541,18 @@
         <v>44</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="14" customFormat="1" ht="60">
       <c r="A13" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>134</v>
@@ -2538,14 +2563,14 @@
       <c r="G13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="37" t="s">
-        <v>332</v>
+      <c r="H13" s="36" t="s">
+        <v>333</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O13" s="23"/>
       <c r="P13" s="23"/>
@@ -2557,7 +2582,7 @@
         <v>98</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
@@ -2566,10 +2591,10 @@
     </row>
     <row r="15" spans="1:18" s="9" customFormat="1" ht="216">
       <c r="A15" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>113</v>
@@ -2578,22 +2603,22 @@
         <v>99</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>335</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O15" s="25" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="P15" s="25" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="9" customFormat="1">
@@ -2602,7 +2627,7 @@
         <v>98</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H16" s="7"/>
       <c r="N16" s="25"/>
@@ -2616,16 +2641,16 @@
         <v>23</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>336</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
@@ -2634,7 +2659,7 @@
     <row r="18" spans="1:18" s="9" customFormat="1">
       <c r="A18" s="29"/>
       <c r="B18" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
@@ -2644,7 +2669,7 @@
     <row r="19" spans="1:18" s="9" customFormat="1">
       <c r="A19" s="29"/>
       <c r="B19" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
@@ -2659,16 +2684,16 @@
         <v>35</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>317</v>
+        <v>307</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>337</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O20" s="23"/>
       <c r="P20" s="23"/>
@@ -2682,28 +2707,28 @@
         <v>23</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>333</v>
+        <v>158</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>322</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="29"/>
       <c r="B22" s="14" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:18" ht="101" customHeight="1">
       <c r="A23" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>35</v>
@@ -2715,55 +2740,55 @@
         <v>72</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="84">
       <c r="A24" s="29"/>
       <c r="D24" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>203</v>
+        <v>198</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>338</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="29"/>
       <c r="B25" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:18" ht="24">
       <c r="A26" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>33</v>
@@ -2772,15 +2797,15 @@
         <v>34</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="48">
       <c r="A27" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>35</v>
@@ -2789,28 +2814,28 @@
         <v>36</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="H27" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="N27" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q27" s="26" t="s">
         <v>201</v>
-      </c>
-      <c r="N27" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q27" s="26" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="29"/>
       <c r="B28" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
@@ -2819,7 +2844,7 @@
     </row>
     <row r="29" spans="1:18" s="10" customFormat="1" ht="60">
       <c r="A29" s="29" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>23</v>
@@ -2831,30 +2856,30 @@
         <v>45</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O29" s="27" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="P29" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q29" s="39" t="s">
-        <v>266</v>
+        <v>258</v>
+      </c>
+      <c r="Q29" s="38" t="s">
+        <v>257</v>
       </c>
       <c r="R29" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>59</v>
@@ -2865,17 +2890,17 @@
       <c r="G30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H30" s="36" t="s">
-        <v>334</v>
+      <c r="H30" s="35" t="s">
+        <v>323</v>
       </c>
       <c r="N30" s="23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="29"/>
       <c r="B31" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H31" s="6"/>
       <c r="N31" s="23"/>
@@ -2883,7 +2908,7 @@
     <row r="32" spans="1:18">
       <c r="A32" s="29"/>
       <c r="B32" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H32" s="6"/>
       <c r="N32" s="23"/>
@@ -2894,35 +2919,35 @@
         <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>220</v>
+        <v>213</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>340</v>
       </c>
       <c r="N33" s="23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="29"/>
       <c r="B34" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H34" s="6"/>
       <c r="N34" s="23"/>
     </row>
     <row r="35" spans="1:18" s="10" customFormat="1" ht="96">
       <c r="A35" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>23</v>
@@ -2934,30 +2959,30 @@
         <v>39</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N35" s="27" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="P35" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q35" s="39" t="s">
-        <v>266</v>
+        <v>256</v>
+      </c>
+      <c r="Q35" s="38" t="s">
+        <v>257</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="48">
       <c r="A36" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>59</v>
@@ -2969,51 +2994,51 @@
         <v>74</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="29"/>
       <c r="B37" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="29"/>
       <c r="B38" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H38" s="11"/>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="29"/>
       <c r="B39" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="29"/>
       <c r="D40" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>336</v>
+        <v>197</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="29"/>
       <c r="B41" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3087,7 +3112,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>86</v>
@@ -3111,7 +3136,7 @@
         <v>90</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3128,10 +3153,10 @@
         <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>90</v>
@@ -3145,7 +3170,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>86</v>
@@ -3186,10 +3211,10 @@
         <v>87</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>90</v>
@@ -3214,10 +3239,10 @@
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3235,8 +3260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3268,7 +3293,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>101</v>
@@ -3282,7 +3307,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>53</v>
@@ -3296,7 +3321,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>54</v>
@@ -3310,7 +3335,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>55</v>
@@ -3324,7 +3349,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>106</v>
@@ -3338,7 +3363,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>108</v>
@@ -3352,7 +3377,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>110</v>
@@ -3366,7 +3391,7 @@
         <v>40</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>56</v>
@@ -3377,35 +3402,35 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B11" s="17">
         <v>0</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B12" s="17">
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B13" s="1">
         <v>-1</v>
@@ -3414,12 +3439,12 @@
         <v>52</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>57</v>
@@ -3428,12 +3453,12 @@
         <v>30</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>58</v>
@@ -3442,49 +3467,49 @@
         <v>31</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>245</v>
+        <v>237</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3534,13 +3559,13 @@
         <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3551,10 +3576,10 @@
         <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D28" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3562,13 +3587,13 @@
         <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C29" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D29" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3579,10 +3604,10 @@
         <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D30" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3593,10 +3618,10 @@
         <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D31" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3607,10 +3632,10 @@
         <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D32" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3618,13 +3643,13 @@
         <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C33" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D33" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3635,10 +3660,10 @@
         <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D34" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3649,10 +3674,10 @@
         <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D35" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3660,13 +3685,13 @@
         <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C36" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D36" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3677,10 +3702,10 @@
         <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D37" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3691,10 +3716,10 @@
         <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D38" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3702,13 +3727,13 @@
         <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C39" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D39" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3716,13 +3741,13 @@
         <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C40" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D40" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3730,13 +3755,13 @@
         <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C41" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D41" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3747,7 +3772,7 @@
         <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D42" t="s">
         <v>123</v>
@@ -3761,7 +3786,7 @@
         <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D43" t="s">
         <v>125</v>
@@ -3775,10 +3800,10 @@
         <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D44" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3789,10 +3814,10 @@
         <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D45" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3803,10 +3828,10 @@
         <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D46" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3817,7 +3842,7 @@
         <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D47" t="s">
         <v>130</v>
@@ -3831,10 +3856,10 @@
         <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D48" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3845,10 +3870,10 @@
         <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D49" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3856,10 +3881,10 @@
         <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D50" t="s">
         <v>133</v>
@@ -3870,13 +3895,13 @@
         <v>113</v>
       </c>
       <c r="B51" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C51" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D51" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3884,13 +3909,13 @@
         <v>113</v>
       </c>
       <c r="B52" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C52" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D52" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3898,13 +3923,13 @@
         <v>113</v>
       </c>
       <c r="B53" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C53" t="s">
-        <v>344</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>345</v>
+        <v>330</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3947,7 +3972,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3975,10 +4000,10 @@
         <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.75" customHeight="1">
@@ -4012,8 +4037,8 @@
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>168</v>
+      <c r="D5" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4026,24 +4051,24 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -4090,14 +4115,14 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -4106,7 +4131,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -4115,7 +4140,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -4146,7 +4171,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -4157,7 +4182,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
         <v>96</v>
@@ -4169,7 +4194,7 @@
     </row>
     <row r="10" spans="1:8" s="14" customFormat="1">
       <c r="A10" s="14" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>99</v>
@@ -4182,7 +4207,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="14" customFormat="1">
@@ -4190,7 +4215,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -4207,10 +4232,10 @@
     </row>
     <row r="14" spans="1:8" s="14" customFormat="1">
       <c r="A14" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="14" customFormat="1">
@@ -4245,7 +4270,7 @@
     </row>
     <row r="18" spans="1:4" s="14" customFormat="1">
       <c r="A18" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>68</v>
@@ -4258,7 +4283,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="14" customFormat="1">
@@ -4273,7 +4298,7 @@
     </row>
     <row r="21" spans="1:4" s="14" customFormat="1">
       <c r="A21" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>69</v>
@@ -4302,7 +4327,7 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4318,7 +4343,7 @@
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4331,26 +4356,26 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4358,7 +4383,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4366,7 +4391,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -4405,7 +4430,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="21" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -4440,7 +4465,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="30" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>11</v>
@@ -4448,26 +4473,26 @@
     </row>
     <row r="2" spans="1:2" ht="211" customHeight="1">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="174" customHeight="1">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="175" customHeight="1">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:2">

--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="1260" windowWidth="40300" windowHeight="24720" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="347">
   <si>
     <t>comments</t>
   </si>
@@ -528,9 +528,6 @@
     <t>required with other</t>
   </si>
   <si>
-    <t>sw:Enrollment</t>
-  </si>
-  <si>
     <t>display.locale.text</t>
   </si>
   <si>
@@ -640,12 +637,6 @@
   </si>
   <si>
     <t>What is the other crop?</t>
-  </si>
-  <si>
-    <t>Only 3 or fewer crops can be selected</t>
-  </si>
-  <si>
-    <t>sw:Only 3 or fewer crops can be selected</t>
   </si>
   <si>
     <t>(selected('crop_type', 'other'))</t>
@@ -1093,6 +1084,21 @@
   </si>
   <si>
     <t>Kiswahili</t>
+  </si>
+  <si>
+    <t>Chagua kati ya mazao 1 mpaka mazao 3 tu. Kama hamna, chagua "Hakuna"</t>
+  </si>
+  <si>
+    <t>Only 3 or fewer crops can be selected. If none, select "not applicable"</t>
+  </si>
+  <si>
+    <t>Andika namba ya simu ya biashara</t>
+  </si>
+  <si>
+    <t>sw:Phone number must begin with 0, be 10 digits, and match previously entered phone number.</t>
+  </si>
+  <si>
+    <t>Uandikishaji</t>
   </si>
 </sst>
 </file>
@@ -2233,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E23" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2302,16 +2308,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2331,7 +2337,7 @@
         <v>159</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="b">
@@ -2344,7 +2350,7 @@
         <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H3" s="6"/>
       <c r="M3" s="2"/>
@@ -2352,14 +2358,14 @@
     <row r="4" spans="1:18" ht="120">
       <c r="A4" s="24"/>
       <c r="D4" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H4" s="6"/>
       <c r="M4" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2367,23 +2373,23 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2391,7 +2397,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>79</v>
@@ -2403,10 +2409,10 @@
         <v>76</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2414,22 +2420,22 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2437,7 +2443,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>80</v>
@@ -2452,7 +2458,7 @@
         <v>138</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2466,10 +2472,10 @@
         <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2489,7 +2495,7 @@
         <v>139</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="60">
@@ -2500,7 +2506,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>45</v>
@@ -2509,19 +2515,19 @@
         <v>147</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="26" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2529,7 +2535,7 @@
         <v>161</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>40</v>
@@ -2544,7 +2550,7 @@
         <v>140</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="14" customFormat="1" ht="60">
@@ -2552,7 +2558,7 @@
         <v>161</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>134</v>
@@ -2564,13 +2570,13 @@
         <v>97</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O13" s="23"/>
       <c r="P13" s="23"/>
@@ -2582,7 +2588,7 @@
         <v>98</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
@@ -2594,7 +2600,7 @@
         <v>161</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>113</v>
@@ -2603,22 +2609,22 @@
         <v>99</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O15" s="25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P15" s="25" t="s">
-        <v>205</v>
+        <v>343</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>206</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="9" customFormat="1">
@@ -2627,7 +2633,7 @@
         <v>98</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H16" s="7"/>
       <c r="N16" s="25"/>
@@ -2641,16 +2647,16 @@
         <v>23</v>
       </c>
       <c r="F17" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>204</v>
-      </c>
       <c r="H17" s="39" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
@@ -2684,16 +2690,16 @@
         <v>35</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O20" s="23"/>
       <c r="P20" s="23"/>
@@ -2713,16 +2719,16 @@
         <v>158</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="29"/>
       <c r="B22" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H22" s="12"/>
     </row>
@@ -2743,40 +2749,40 @@
         <v>141</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="84">
       <c r="A24" s="29"/>
       <c r="D24" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="29"/>
       <c r="B25" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H25" s="22"/>
     </row>
@@ -2788,7 +2794,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>33</v>
@@ -2800,7 +2806,7 @@
         <v>142</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="48">
@@ -2814,28 +2820,28 @@
         <v>36</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="N27" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q27" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="29"/>
       <c r="B28" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
@@ -2844,7 +2850,7 @@
     </row>
     <row r="29" spans="1:18" s="10" customFormat="1" ht="60">
       <c r="A29" s="29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>23</v>
@@ -2856,22 +2862,22 @@
         <v>45</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>147</v>
+        <v>344</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O29" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P29" s="27" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q29" s="38" t="s">
-        <v>257</v>
+        <v>345</v>
       </c>
       <c r="R29" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2879,7 +2885,7 @@
         <v>166</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>59</v>
@@ -2891,16 +2897,16 @@
         <v>73</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="N30" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="29"/>
       <c r="B31" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H31" s="6"/>
       <c r="N31" s="23"/>
@@ -2908,7 +2914,7 @@
     <row r="32" spans="1:18">
       <c r="A32" s="29"/>
       <c r="B32" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H32" s="6"/>
       <c r="N32" s="23"/>
@@ -2922,25 +2928,25 @@
         <v>153</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N33" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="29"/>
       <c r="B34" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H34" s="6"/>
       <c r="N34" s="23"/>
@@ -2962,19 +2968,19 @@
         <v>148</v>
       </c>
       <c r="N35" s="27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P35" s="27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q35" s="38" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="48">
@@ -2982,7 +2988,7 @@
         <v>166</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>59</v>
@@ -2997,7 +3003,7 @@
         <v>149</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3010,29 +3016,29 @@
     <row r="38" spans="1:18">
       <c r="A38" s="29"/>
       <c r="B38" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H38" s="11"/>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="29"/>
       <c r="B39" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="29"/>
       <c r="D40" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="H40" s="37" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3112,7 +3118,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>86</v>
@@ -3136,7 +3142,7 @@
         <v>90</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3153,10 +3159,10 @@
         <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>90</v>
@@ -3170,7 +3176,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>86</v>
@@ -3211,10 +3217,10 @@
         <v>87</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>90</v>
@@ -3242,7 +3248,7 @@
         <v>136</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3293,7 +3299,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>101</v>
@@ -3307,7 +3313,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>53</v>
@@ -3321,7 +3327,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>54</v>
@@ -3335,7 +3341,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>55</v>
@@ -3349,7 +3355,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>106</v>
@@ -3363,7 +3369,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>108</v>
@@ -3377,7 +3383,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>110</v>
@@ -3391,7 +3397,7 @@
         <v>40</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>56</v>
@@ -3402,35 +3408,35 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B11" s="17">
         <v>0</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B12" s="17">
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B13" s="1">
         <v>-1</v>
@@ -3444,7 +3450,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>57</v>
@@ -3458,7 +3464,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>58</v>
@@ -3472,16 +3478,16 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3495,7 +3501,7 @@
         <v>154</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3509,7 +3515,7 @@
         <v>157</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3576,10 +3582,10 @@
         <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3587,13 +3593,13 @@
         <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D29" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3604,10 +3610,10 @@
         <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D30" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3618,10 +3624,10 @@
         <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D31" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3632,10 +3638,10 @@
         <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D32" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3643,13 +3649,13 @@
         <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C33" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D33" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3660,10 +3666,10 @@
         <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D34" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3674,10 +3680,10 @@
         <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D35" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3685,13 +3691,13 @@
         <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C36" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D36" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3702,10 +3708,10 @@
         <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D37" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3716,10 +3722,10 @@
         <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D38" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3727,13 +3733,13 @@
         <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C39" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D39" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3741,13 +3747,13 @@
         <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C40" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D40" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3755,13 +3761,13 @@
         <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C41" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D41" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3772,7 +3778,7 @@
         <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D42" t="s">
         <v>123</v>
@@ -3786,7 +3792,7 @@
         <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D43" t="s">
         <v>125</v>
@@ -3800,10 +3806,10 @@
         <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D44" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3814,10 +3820,10 @@
         <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D45" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3828,10 +3834,10 @@
         <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D46" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3842,7 +3848,7 @@
         <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D47" t="s">
         <v>130</v>
@@ -3856,10 +3862,10 @@
         <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D48" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3870,10 +3876,10 @@
         <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D49" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3881,10 +3887,10 @@
         <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C50" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D50" t="s">
         <v>133</v>
@@ -3895,13 +3901,13 @@
         <v>113</v>
       </c>
       <c r="B51" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C51" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D51" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3909,13 +3915,13 @@
         <v>113</v>
       </c>
       <c r="B52" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C52" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D52" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3923,13 +3929,13 @@
         <v>113</v>
       </c>
       <c r="B53" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C53" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3972,7 +3978,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4000,10 +4006,10 @@
         <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.75" customHeight="1">
@@ -4038,7 +4044,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>167</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4051,24 +4057,24 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -4122,7 +4128,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -4131,7 +4137,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -4140,7 +4146,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -4171,7 +4177,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -4182,7 +4188,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
         <v>96</v>
@@ -4194,7 +4200,7 @@
     </row>
     <row r="10" spans="1:8" s="14" customFormat="1">
       <c r="A10" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>99</v>
@@ -4207,7 +4213,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="14" customFormat="1">
@@ -4232,10 +4238,10 @@
     </row>
     <row r="14" spans="1:8" s="14" customFormat="1">
       <c r="A14" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="14" customFormat="1">
@@ -4270,7 +4276,7 @@
     </row>
     <row r="18" spans="1:4" s="14" customFormat="1">
       <c r="A18" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>68</v>
@@ -4283,7 +4289,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="14" customFormat="1">
@@ -4298,7 +4304,7 @@
     </row>
     <row r="21" spans="1:4" s="14" customFormat="1">
       <c r="A21" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>69</v>
@@ -4327,7 +4333,7 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4343,7 +4349,7 @@
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4356,26 +4362,26 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4383,7 +4389,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4391,7 +4397,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -4409,7 +4415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -4430,7 +4436,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="21" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -4465,7 +4471,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="30" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>11</v>
@@ -4473,26 +4479,26 @@
     </row>
     <row r="2" spans="1:2" ht="211" customHeight="1">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="174" customHeight="1">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="175" customHeight="1">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:2">

--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="5660" yWindow="40" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="347">
   <si>
     <t>comments</t>
   </si>
@@ -1225,7 +1225,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="258">
+  <cellStyleXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1328,6 +1328,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1574,7 +1578,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="258">
+  <cellStyles count="262">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1703,6 +1707,8 @@
     <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1830,6 +1836,8 @@
     <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Normal 5" xfId="101"/>
@@ -2239,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2373,10 +2381,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>240</v>
@@ -2397,10 +2402,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>75</v>
@@ -2420,10 +2422,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>66</v>
@@ -2443,10 +2442,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>28</v>
@@ -4093,7 +4089,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4390,6 +4386,14 @@
       </c>
       <c r="B31" s="1" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:2">

--- a/app/config/tables/business/forms/enrollment/enrollment.xlsx
+++ b/app/config/tables/business/forms/enrollment/enrollment.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarice\eKichabi\app-designer\app\config\tables\business\forms\enrollment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="40" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="5655" yWindow="45" windowWidth="25365" windowHeight="15825" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1104,7 +1109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2247,32 +2252,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" style="2" customWidth="1"/>
-    <col min="2" max="3" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="44.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="44.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" style="2" customWidth="1"/>
     <col min="15" max="15" width="16" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="2" customWidth="1"/>
     <col min="17" max="17" width="22" style="2" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" style="1" customWidth="1"/>
-    <col min="19" max="1025" width="11.33203125" style="1" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="1"/>
+    <col min="18" max="18" width="17.140625" style="1" customWidth="1"/>
+    <col min="19" max="1025" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24">
+    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -2328,7 +2333,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>160</v>
       </c>
@@ -2352,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="24"/>
       <c r="B3" s="1" t="s">
         <v>98</v>
@@ -2363,7 +2368,7 @@
       <c r="H3" s="6"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="120">
+    <row r="4" spans="1:18" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
       <c r="D4" s="1" t="s">
         <v>237</v>
@@ -2376,7 +2381,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>12</v>
       </c>
@@ -2397,7 +2402,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>12</v>
       </c>
@@ -2417,7 +2422,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>12</v>
       </c>
@@ -2437,7 +2442,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
@@ -2457,7 +2462,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>12</v>
       </c>
@@ -2474,7 +2479,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>12</v>
       </c>
@@ -2494,7 +2499,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="60">
+    <row r="11" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>12</v>
       </c>
@@ -2526,7 +2531,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>161</v>
       </c>
@@ -2549,7 +2554,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="14" customFormat="1" ht="60">
+    <row r="13" spans="1:18" s="14" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>161</v>
       </c>
@@ -2578,7 +2583,7 @@
       <c r="P13" s="23"/>
       <c r="Q13" s="23"/>
     </row>
-    <row r="14" spans="1:18" s="9" customFormat="1">
+    <row r="14" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
       <c r="B14" s="9" t="s">
         <v>98</v>
@@ -2591,7 +2596,7 @@
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
     </row>
-    <row r="15" spans="1:18" s="9" customFormat="1" ht="216">
+    <row r="15" spans="1:18" s="9" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>161</v>
       </c>
@@ -2623,7 +2628,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="9" customFormat="1">
+    <row r="16" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
       <c r="B16" s="9" t="s">
         <v>98</v>
@@ -2637,7 +2642,7 @@
       <c r="P16" s="25"/>
       <c r="Q16" s="28"/>
     </row>
-    <row r="17" spans="1:18" s="9" customFormat="1" ht="84">
+    <row r="17" spans="1:18" s="9" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A17" s="29"/>
       <c r="D17" s="9" t="s">
         <v>23</v>
@@ -2658,7 +2663,7 @@
       <c r="P17" s="25"/>
       <c r="Q17" s="25"/>
     </row>
-    <row r="18" spans="1:18" s="9" customFormat="1">
+    <row r="18" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="29"/>
       <c r="B18" s="9" t="s">
         <v>135</v>
@@ -2668,7 +2673,7 @@
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
     </row>
-    <row r="19" spans="1:18" s="9" customFormat="1">
+    <row r="19" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="B19" s="9" t="s">
         <v>135</v>
@@ -2678,7 +2683,7 @@
       <c r="P19" s="25"/>
       <c r="Q19" s="25"/>
     </row>
-    <row r="20" spans="1:18" s="14" customFormat="1" ht="13">
+    <row r="20" spans="1:18" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
         <v>12</v>
       </c>
@@ -2701,7 +2706,7 @@
       <c r="P20" s="23"/>
       <c r="Q20" s="23"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
         <v>12</v>
       </c>
@@ -2721,14 +2726,14 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="29"/>
       <c r="B22" s="14" t="s">
         <v>205</v>
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:18" ht="101" customHeight="1">
+    <row r="23" spans="1:18" ht="101.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>164</v>
       </c>
@@ -2757,7 +2762,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="84">
+    <row r="24" spans="1:18" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A24" s="29"/>
       <c r="D24" s="1" t="s">
         <v>191</v>
@@ -2775,14 +2780,14 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="29"/>
       <c r="B25" s="1" t="s">
         <v>206</v>
       </c>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:18" ht="24">
+    <row r="26" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="29" t="s">
         <v>162</v>
       </c>
@@ -2805,7 +2810,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="48">
+    <row r="27" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
         <v>163</v>
       </c>
@@ -2834,7 +2839,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="29"/>
       <c r="B28" s="1" t="s">
         <v>205</v>
@@ -2844,7 +2849,7 @@
       <c r="N28" s="23"/>
       <c r="Q28" s="26"/>
     </row>
-    <row r="29" spans="1:18" s="10" customFormat="1" ht="60">
+    <row r="29" spans="1:18" s="10" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
         <v>208</v>
       </c>
@@ -2876,7 +2881,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
         <v>166</v>
       </c>
@@ -2899,7 +2904,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="29"/>
       <c r="B31" s="1" t="s">
         <v>206</v>
@@ -2907,7 +2912,7 @@
       <c r="H31" s="6"/>
       <c r="N31" s="23"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="29"/>
       <c r="B32" s="1" t="s">
         <v>205</v>
@@ -2915,7 +2920,7 @@
       <c r="H32" s="6"/>
       <c r="N32" s="23"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="29"/>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -2936,7 +2941,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="29"/>
       <c r="B34" s="1" t="s">
         <v>211</v>
@@ -2947,7 +2952,7 @@
       <c r="H34" s="6"/>
       <c r="N34" s="23"/>
     </row>
-    <row r="35" spans="1:18" s="10" customFormat="1" ht="96">
+    <row r="35" spans="1:18" s="10" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
         <v>165</v>
       </c>
@@ -2979,7 +2984,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="48">
+    <row r="36" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
         <v>166</v>
       </c>
@@ -3002,27 +3007,27 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="29"/>
       <c r="B37" s="1" t="s">
         <v>135</v>
       </c>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="29"/>
       <c r="B38" s="1" t="s">
         <v>206</v>
       </c>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="29"/>
       <c r="B39" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="29"/>
       <c r="D40" s="1" t="s">
         <v>194</v>
@@ -3037,7 +3042,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="29"/>
       <c r="B41" s="1" t="s">
         <v>135</v>
@@ -3062,22 +3067,22 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="15.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="15.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="33" style="1" customWidth="1"/>
-    <col min="10" max="10" width="32.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="32.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -3112,7 +3117,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>239</v>
       </c>
@@ -3141,7 +3146,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
@@ -3170,7 +3175,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>187</v>
       </c>
@@ -3199,7 +3204,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" customHeight="1">
+    <row r="5" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
@@ -3228,12 +3233,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" customHeight="1">
+    <row r="6" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="85" customHeight="1">
+    <row r="8" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>134</v>
       </c>
@@ -3266,17 +3271,17 @@
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" style="1" customWidth="1"/>
-    <col min="5" max="1024" width="8.6640625" style="1" customWidth="1"/>
-    <col min="1025" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="1" customWidth="1"/>
+    <col min="5" max="1024" width="8.7109375" style="1" customWidth="1"/>
+    <col min="1025" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.25" customHeight="1">
+    <row r="1" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3290,7 +3295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -3304,7 +3309,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" customHeight="1">
+    <row r="3" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -3318,7 +3323,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" customHeight="1">
+    <row r="4" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -3332,7 +3337,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -3346,7 +3351,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -3360,7 +3365,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -3374,7 +3379,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -3388,7 +3393,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -3402,7 +3407,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>313</v>
       </c>
@@ -3416,7 +3421,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>313</v>
       </c>
@@ -3430,7 +3435,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>313</v>
       </c>
@@ -3444,7 +3449,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>232</v>
       </c>
@@ -3458,7 +3463,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>232</v>
       </c>
@@ -3472,7 +3477,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>232</v>
       </c>
@@ -3486,7 +3491,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>153</v>
       </c>
@@ -3500,7 +3505,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>153</v>
       </c>
@@ -3514,7 +3519,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
@@ -3528,7 +3533,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
@@ -3542,7 +3547,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
@@ -3556,7 +3561,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
@@ -3570,7 +3575,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>113</v>
       </c>
@@ -3584,7 +3589,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>113</v>
       </c>
@@ -3598,7 +3603,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>113</v>
       </c>
@@ -3612,7 +3617,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>113</v>
       </c>
@@ -3626,7 +3631,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>113</v>
       </c>
@@ -3640,7 +3645,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>113</v>
       </c>
@@ -3654,7 +3659,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>113</v>
       </c>
@@ -3668,7 +3673,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
@@ -3682,7 +3687,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>113</v>
       </c>
@@ -3696,7 +3701,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>113</v>
       </c>
@@ -3710,7 +3715,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -3724,7 +3729,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
@@ -3738,7 +3743,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>113</v>
       </c>
@@ -3752,7 +3757,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>113</v>
       </c>
@@ -3766,7 +3771,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>113</v>
       </c>
@@ -3780,7 +3785,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>113</v>
       </c>
@@ -3794,7 +3799,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>113</v>
       </c>
@@ -3808,7 +3813,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>113</v>
       </c>
@@ -3822,7 +3827,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
@@ -3836,7 +3841,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>113</v>
       </c>
@@ -3850,7 +3855,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>113</v>
       </c>
@@ -3864,7 +3869,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>113</v>
       </c>
@@ -3878,7 +3883,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>113</v>
       </c>
@@ -3892,7 +3897,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>113</v>
       </c>
@@ -3906,7 +3911,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>113</v>
       </c>
@@ -3920,7 +3925,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>113</v>
       </c>
@@ -3934,25 +3939,25 @@
         <v>339</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -3977,18 +3982,18 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="19.6640625" style="1" customWidth="1"/>
-    <col min="7" max="1022" width="11.33203125" style="1" customWidth="1"/>
-    <col min="1023" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="28.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="19.7109375" style="1" customWidth="1"/>
+    <col min="7" max="1022" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1023" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.75" customHeight="1">
+    <row r="1" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -4008,7 +4013,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.75" customHeight="1">
+    <row r="2" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -4016,7 +4021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.75" customHeight="1">
+    <row r="3" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -4024,7 +4029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.75" customHeight="1">
+    <row r="4" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -4032,7 +4037,7 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.75" customHeight="1">
+    <row r="5" spans="1:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -4043,7 +4048,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -4051,7 +4056,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>168</v>
       </c>
@@ -4062,7 +4067,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>169</v>
       </c>
@@ -4088,23 +4093,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" style="1"/>
-    <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="20.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
@@ -4112,7 +4117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4122,27 +4127,27 @@
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -4150,7 +4155,7 @@
       <c r="C5"/>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -4160,7 +4165,7 @@
       <c r="C6"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -4171,7 +4176,7 @@
       <c r="D7"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -4182,7 +4187,7 @@
       <c r="D8"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>174</v>
       </c>
@@ -4194,7 +4199,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:8" s="14" customFormat="1">
+    <row r="10" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>201</v>
       </c>
@@ -4204,7 +4209,7 @@
       <c r="C10"/>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:8" s="14" customFormat="1">
+    <row r="11" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>23</v>
       </c>
@@ -4212,7 +4217,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1">
+    <row r="12" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>23</v>
       </c>
@@ -4222,7 +4227,7 @@
       <c r="C12"/>
       <c r="D12"/>
     </row>
-    <row r="13" spans="1:8" s="14" customFormat="1">
+    <row r="13" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>35</v>
       </c>
@@ -4232,7 +4237,7 @@
       <c r="C13"/>
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:8" s="14" customFormat="1">
+    <row r="14" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>191</v>
       </c>
@@ -4240,7 +4245,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="14" customFormat="1">
+    <row r="15" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
@@ -4250,7 +4255,7 @@
       <c r="C15"/>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:8" s="14" customFormat="1">
+    <row r="16" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>35</v>
       </c>
@@ -4260,7 +4265,7 @@
       <c r="C16"/>
       <c r="D16"/>
     </row>
-    <row r="17" spans="1:4" s="14" customFormat="1">
+    <row r="17" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -4270,7 +4275,7 @@
       <c r="C17"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:4" s="14" customFormat="1">
+    <row r="18" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>174</v>
       </c>
@@ -4280,7 +4285,7 @@
       <c r="C18"/>
       <c r="D18"/>
     </row>
-    <row r="19" spans="1:4" s="14" customFormat="1">
+    <row r="19" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>13</v>
       </c>
@@ -4288,7 +4293,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="14" customFormat="1">
+    <row r="20" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>23</v>
       </c>
@@ -4298,7 +4303,7 @@
       <c r="C20"/>
       <c r="D20"/>
     </row>
-    <row r="21" spans="1:4" s="14" customFormat="1">
+    <row r="21" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>174</v>
       </c>
@@ -4308,7 +4313,7 @@
       <c r="C21"/>
       <c r="D21"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4316,7 +4321,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -4324,7 +4329,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -4332,7 +4337,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4340,7 +4345,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -4348,7 +4353,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -4356,7 +4361,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>217</v>
       </c>
@@ -4364,7 +4369,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>217</v>
       </c>
@@ -4372,7 +4377,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>217</v>
       </c>
@@ -4380,7 +4385,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
@@ -4388,7 +4393,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
@@ -4396,7 +4401,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -4423,14 +4428,14 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.1640625" style="1"/>
+    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -4438,7 +4443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>221</v>
       </c>
@@ -4446,7 +4451,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="14"/>
     </row>
   </sheetData>
@@ -4467,13 +4472,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>212</v>
       </c>
@@ -4481,7 +4486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="211" customHeight="1">
+    <row r="2" spans="1:2" ht="210.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -4489,7 +4494,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="174" customHeight="1">
+    <row r="3" spans="1:2" ht="174" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>215</v>
       </c>
@@ -4497,7 +4502,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="175" customHeight="1">
+    <row r="4" spans="1:2" ht="174.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>245</v>
       </c>
@@ -4505,7 +4510,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
     </row>
   </sheetData>
